--- a/src/results_2023/2381_out.xlsx
+++ b/src/results_2023/2381_out.xlsx
@@ -8,6 +8,12 @@
   </bookViews>
   <sheets>
     <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="Git" sheetId="1" state="visible" r:id="rId1"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="Linux" sheetId="2" state="visible" r:id="rId2"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="Информатика. Раздел 1" sheetId="3" state="visible" r:id="rId3"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="Информатика. Раздел 2" sheetId="4" state="visible" r:id="rId4"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="Информатика. Раздел 3" sheetId="5" state="visible" r:id="rId5"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="Информатика. Раздел 4" sheetId="6" state="visible" r:id="rId6"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="Информатика. Раздел 5" sheetId="7" state="visible" r:id="rId7"/>
   </sheets>
   <definedNames/>
   <calcPr calcId="124519" fullCalcOnLoad="1"/>
@@ -1315,4 +1321,5392 @@
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>
+</file>
+
+<file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <sheetPr>
+    <outlinePr summaryBelow="1" summaryRight="1"/>
+    <pageSetUpPr/>
+  </sheetPr>
+  <dimension ref="A1:H26"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A1" sqref="A1"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
+  <sheetData>
+    <row r="1">
+      <c r="B1" s="1" t="inlineStr">
+        <is>
+          <t>ФИО</t>
+        </is>
+      </c>
+      <c r="C1" s="1" t="inlineStr">
+        <is>
+          <t>Группа</t>
+        </is>
+      </c>
+      <c r="D1" s="1" t="inlineStr">
+        <is>
+          <t>email</t>
+        </is>
+      </c>
+      <c r="E1" s="1" t="inlineStr">
+        <is>
+          <t>github</t>
+        </is>
+      </c>
+      <c r="F1" s="1" t="inlineStr">
+        <is>
+          <t>e.moevm.info</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>Итого</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
+          <t>Оценка</t>
+        </is>
+      </c>
+    </row>
+    <row r="2">
+      <c r="A2" s="1" t="n">
+        <v>0</v>
+      </c>
+      <c r="B2" t="inlineStr">
+        <is>
+          <t>Апарина Тамила Дмитриевна</t>
+        </is>
+      </c>
+      <c r="C2" t="n">
+        <v>2381</v>
+      </c>
+      <c r="D2" t="inlineStr">
+        <is>
+          <t>millergloria18t@gmail.com</t>
+        </is>
+      </c>
+      <c r="E2" t="inlineStr">
+        <is>
+          <t>tamilka17</t>
+        </is>
+      </c>
+      <c r="F2" t="inlineStr">
+        <is>
+          <t>tamilkaa17.</t>
+        </is>
+      </c>
+      <c r="G2" t="n">
+        <v>2</v>
+      </c>
+      <c r="H2" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="3">
+      <c r="A3" s="1" t="n">
+        <v>1</v>
+      </c>
+      <c r="B3" t="inlineStr">
+        <is>
+          <t>Богатов Илья Алексеевич</t>
+        </is>
+      </c>
+      <c r="C3" t="n">
+        <v>2381</v>
+      </c>
+      <c r="D3" t="inlineStr">
+        <is>
+          <t>bogatov2021@mail.ru</t>
+        </is>
+      </c>
+      <c r="E3" t="inlineStr">
+        <is>
+          <t>cuga77</t>
+        </is>
+      </c>
+      <c r="F3" t="inlineStr">
+        <is>
+          <t>cuga</t>
+        </is>
+      </c>
+      <c r="G3" t="n">
+        <v>113</v>
+      </c>
+      <c r="H3" t="n">
+        <v>21</v>
+      </c>
+    </row>
+    <row r="4">
+      <c r="A4" s="1" t="n">
+        <v>2</v>
+      </c>
+      <c r="B4" t="inlineStr">
+        <is>
+          <t>Газукина Дарья Денисовна</t>
+        </is>
+      </c>
+      <c r="C4" t="n">
+        <v>2381</v>
+      </c>
+      <c r="D4" t="inlineStr">
+        <is>
+          <t>dariaomnom@gmail.com</t>
+        </is>
+      </c>
+      <c r="E4" t="inlineStr">
+        <is>
+          <t>dariaomnom</t>
+        </is>
+      </c>
+      <c r="F4" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> Дарья Газукина</t>
+        </is>
+      </c>
+      <c r="G4" t="n">
+        <v>113</v>
+      </c>
+      <c r="H4" t="n">
+        <v>21</v>
+      </c>
+    </row>
+    <row r="5">
+      <c r="A5" s="1" t="n">
+        <v>3</v>
+      </c>
+      <c r="B5" t="inlineStr">
+        <is>
+          <t>Двиков Даниил Владиславович</t>
+        </is>
+      </c>
+      <c r="C5" t="n">
+        <v>2381</v>
+      </c>
+      <c r="D5" t="inlineStr">
+        <is>
+          <t>danillafuture@gmail.com</t>
+        </is>
+      </c>
+      <c r="E5" t="inlineStr">
+        <is>
+          <t>daniildvikov</t>
+        </is>
+      </c>
+      <c r="F5" t="inlineStr">
+        <is>
+          <t>Даниил Двиков</t>
+        </is>
+      </c>
+      <c r="G5" t="n">
+        <v>113</v>
+      </c>
+      <c r="H5" t="n">
+        <v>21</v>
+      </c>
+    </row>
+    <row r="6">
+      <c r="A6" s="1" t="n">
+        <v>4</v>
+      </c>
+      <c r="B6" t="inlineStr">
+        <is>
+          <t>Долотов Никита Андреевич</t>
+        </is>
+      </c>
+      <c r="C6" t="n">
+        <v>2381</v>
+      </c>
+      <c r="D6" t="inlineStr">
+        <is>
+          <t>dolotok2@gmail.com</t>
+        </is>
+      </c>
+      <c r="E6" t="inlineStr">
+        <is>
+          <t>do1otov</t>
+        </is>
+      </c>
+      <c r="F6" t="inlineStr">
+        <is>
+          <t>Никита Долотов (do1otov)</t>
+        </is>
+      </c>
+      <c r="G6" t="n">
+        <v>113</v>
+      </c>
+      <c r="H6" t="n">
+        <v>21</v>
+      </c>
+    </row>
+    <row r="7">
+      <c r="A7" s="1" t="n">
+        <v>5</v>
+      </c>
+      <c r="B7" t="inlineStr">
+        <is>
+          <t>Зазуля Илья Анатольевич</t>
+        </is>
+      </c>
+      <c r="C7" t="n">
+        <v>2381</v>
+      </c>
+      <c r="D7" t="inlineStr">
+        <is>
+          <t>zazulya_i@mail.ru</t>
+        </is>
+      </c>
+      <c r="E7" t="inlineStr">
+        <is>
+          <t>ascens1ve</t>
+        </is>
+      </c>
+      <c r="F7" t="inlineStr">
+        <is>
+          <t>ascensive</t>
+        </is>
+      </c>
+      <c r="G7" t="n">
+        <v>113</v>
+      </c>
+      <c r="H7" t="n">
+        <v>21</v>
+      </c>
+    </row>
+    <row r="8">
+      <c r="A8" s="1" t="n">
+        <v>6</v>
+      </c>
+      <c r="B8" t="inlineStr">
+        <is>
+          <t>Заметаев Михаил Алексеевич</t>
+        </is>
+      </c>
+      <c r="C8" t="n">
+        <v>2381</v>
+      </c>
+      <c r="D8" t="inlineStr">
+        <is>
+          <t>mikhailzametaev@gmail.com</t>
+        </is>
+      </c>
+      <c r="E8" t="inlineStr">
+        <is>
+          <t>qwers451</t>
+        </is>
+      </c>
+      <c r="F8" t="inlineStr">
+        <is>
+          <t>1449</t>
+        </is>
+      </c>
+      <c r="G8" t="n">
+        <v>113</v>
+      </c>
+      <c r="H8" t="n">
+        <v>21</v>
+      </c>
+    </row>
+    <row r="9">
+      <c r="A9" s="1" t="n">
+        <v>7</v>
+      </c>
+      <c r="B9" t="inlineStr">
+        <is>
+          <t>Ильясов Марк Ренатович</t>
+        </is>
+      </c>
+      <c r="C9" t="n">
+        <v>2381</v>
+      </c>
+      <c r="D9" t="inlineStr">
+        <is>
+          <t>monsier.sadness@gmail.com</t>
+        </is>
+      </c>
+      <c r="E9" t="inlineStr">
+        <is>
+          <t>monsier-chess</t>
+        </is>
+      </c>
+      <c r="F9" t="inlineStr">
+        <is>
+          <t>monsier-sadness</t>
+        </is>
+      </c>
+      <c r="G9" t="n">
+        <v>111</v>
+      </c>
+      <c r="H9" t="n">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="10">
+      <c r="A10" s="1" t="n">
+        <v>8</v>
+      </c>
+      <c r="B10" t="inlineStr">
+        <is>
+          <t>Комосский Егор Артемович</t>
+        </is>
+      </c>
+      <c r="C10" t="n">
+        <v>2381</v>
+      </c>
+      <c r="D10" t="inlineStr">
+        <is>
+          <t>fivehellday@gmail.com</t>
+        </is>
+      </c>
+      <c r="E10" t="inlineStr"/>
+      <c r="F10" t="inlineStr"/>
+      <c r="G10" t="n">
+        <v>113</v>
+      </c>
+      <c r="H10" t="n">
+        <v>21</v>
+      </c>
+    </row>
+    <row r="11">
+      <c r="A11" s="1" t="n">
+        <v>9</v>
+      </c>
+      <c r="B11" t="inlineStr">
+        <is>
+          <t>Кривов Савелий Алексеевич</t>
+        </is>
+      </c>
+      <c r="C11" t="n">
+        <v>2381</v>
+      </c>
+      <c r="D11" t="inlineStr">
+        <is>
+          <t>krivovsaveliy28@gmail.com</t>
+        </is>
+      </c>
+      <c r="E11" t="inlineStr">
+        <is>
+          <t>saveliykrivov</t>
+        </is>
+      </c>
+      <c r="F11" t="inlineStr">
+        <is>
+          <t>Савелий Кривов</t>
+        </is>
+      </c>
+      <c r="G11" t="n">
+        <v>113</v>
+      </c>
+      <c r="H11" t="n">
+        <v>21</v>
+      </c>
+    </row>
+    <row r="12">
+      <c r="A12" s="1" t="n">
+        <v>10</v>
+      </c>
+      <c r="B12" t="inlineStr">
+        <is>
+          <t>Кузнецов Илья Игоревич</t>
+        </is>
+      </c>
+      <c r="C12" t="n">
+        <v>2381</v>
+      </c>
+      <c r="D12" t="inlineStr">
+        <is>
+          <t>kuznecovilya12@gmail.com</t>
+        </is>
+      </c>
+      <c r="E12" t="inlineStr">
+        <is>
+          <t>enshxx</t>
+        </is>
+      </c>
+      <c r="F12" t="inlineStr">
+        <is>
+          <t>enshx</t>
+        </is>
+      </c>
+      <c r="G12" t="n">
+        <v>113</v>
+      </c>
+      <c r="H12" t="n">
+        <v>21</v>
+      </c>
+    </row>
+    <row r="13">
+      <c r="A13" s="1" t="n">
+        <v>11</v>
+      </c>
+      <c r="B13" t="inlineStr">
+        <is>
+          <t>Лисицкий Степан Александрович</t>
+        </is>
+      </c>
+      <c r="C13" t="n">
+        <v>2381</v>
+      </c>
+      <c r="D13" t="inlineStr">
+        <is>
+          <t>stefanlis123@gmail.com</t>
+        </is>
+      </c>
+      <c r="E13" t="inlineStr">
+        <is>
+          <t>stefachik</t>
+        </is>
+      </c>
+      <c r="F13" t="inlineStr">
+        <is>
+          <t>stefanchik</t>
+        </is>
+      </c>
+      <c r="G13" t="n">
+        <v>113</v>
+      </c>
+      <c r="H13" t="n">
+        <v>21</v>
+      </c>
+    </row>
+    <row r="14">
+      <c r="A14" s="1" t="n">
+        <v>12</v>
+      </c>
+      <c r="B14" t="inlineStr">
+        <is>
+          <t>Мавликаев Иван Андреевич</t>
+        </is>
+      </c>
+      <c r="C14" t="n">
+        <v>2381</v>
+      </c>
+      <c r="D14" t="inlineStr">
+        <is>
+          <t>zaufman@mail.ru</t>
+        </is>
+      </c>
+      <c r="E14" t="inlineStr">
+        <is>
+          <t>ivanmavlikaev</t>
+        </is>
+      </c>
+      <c r="F14" t="inlineStr">
+        <is>
+          <t>ivanmavlikaev</t>
+        </is>
+      </c>
+      <c r="G14" t="n">
+        <v>113</v>
+      </c>
+      <c r="H14" t="n">
+        <v>21</v>
+      </c>
+    </row>
+    <row r="15">
+      <c r="A15" s="1" t="n">
+        <v>13</v>
+      </c>
+      <c r="B15" t="inlineStr">
+        <is>
+          <t>Маленковская Екатерина Андреевна</t>
+        </is>
+      </c>
+      <c r="C15" t="n">
+        <v>2381</v>
+      </c>
+      <c r="D15" t="inlineStr">
+        <is>
+          <t>ekaterina.m.04@mail.ru</t>
+        </is>
+      </c>
+      <c r="E15" t="inlineStr">
+        <is>
+          <t>mkathrin</t>
+        </is>
+      </c>
+      <c r="F15" t="inlineStr">
+        <is>
+          <t>mkathrin</t>
+        </is>
+      </c>
+      <c r="G15" t="n">
+        <v>11</v>
+      </c>
+      <c r="H15" t="n">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="16">
+      <c r="A16" s="1" t="n">
+        <v>14</v>
+      </c>
+      <c r="B16" t="inlineStr">
+        <is>
+          <t>Малюская Дарья Ивановна</t>
+        </is>
+      </c>
+      <c r="C16" t="n">
+        <v>2381</v>
+      </c>
+      <c r="D16" t="inlineStr">
+        <is>
+          <t>dasha163463@gmail.com</t>
+        </is>
+      </c>
+      <c r="E16" t="inlineStr">
+        <is>
+          <t>daryamalyuskaya</t>
+        </is>
+      </c>
+      <c r="F16" t="inlineStr">
+        <is>
+          <t>moiruki</t>
+        </is>
+      </c>
+      <c r="G16" t="n">
+        <v>113</v>
+      </c>
+      <c r="H16" t="n">
+        <v>21</v>
+      </c>
+    </row>
+    <row r="17">
+      <c r="A17" s="1" t="n">
+        <v>15</v>
+      </c>
+      <c r="B17" t="inlineStr">
+        <is>
+          <t>Полежаев Андрей Александрович</t>
+        </is>
+      </c>
+      <c r="C17" t="n">
+        <v>2381</v>
+      </c>
+      <c r="D17" t="inlineStr">
+        <is>
+          <t>andrejpolezhaev5909@gmail.com</t>
+        </is>
+      </c>
+      <c r="E17" t="inlineStr">
+        <is>
+          <t>andrew2657</t>
+        </is>
+      </c>
+      <c r="F17" t="inlineStr">
+        <is>
+          <t>Полежаев Андрей</t>
+        </is>
+      </c>
+      <c r="G17" t="n">
+        <v>0</v>
+      </c>
+      <c r="H17" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="18">
+      <c r="A18" s="1" t="n">
+        <v>16</v>
+      </c>
+      <c r="B18" t="inlineStr">
+        <is>
+          <t>Потапова Дарья Максимовна</t>
+        </is>
+      </c>
+      <c r="C18" t="n">
+        <v>2381</v>
+      </c>
+      <c r="D18" t="inlineStr">
+        <is>
+          <t>dm.potapova@gmail.com</t>
+        </is>
+      </c>
+      <c r="E18" t="inlineStr">
+        <is>
+          <t>daryapotapovaa</t>
+        </is>
+      </c>
+      <c r="F18" t="inlineStr">
+        <is>
+          <t>Дарья Потапова</t>
+        </is>
+      </c>
+      <c r="G18" t="n">
+        <v>113</v>
+      </c>
+      <c r="H18" t="n">
+        <v>21</v>
+      </c>
+    </row>
+    <row r="19">
+      <c r="A19" s="1" t="n">
+        <v>17</v>
+      </c>
+      <c r="B19" t="inlineStr">
+        <is>
+          <t>Рыжиков Иван Сергеевич</t>
+        </is>
+      </c>
+      <c r="C19" t="n">
+        <v>2381</v>
+      </c>
+      <c r="D19" t="inlineStr">
+        <is>
+          <t>iwanryzij@yandex.ru</t>
+        </is>
+      </c>
+      <c r="E19" t="inlineStr">
+        <is>
+          <t>teum3048</t>
+        </is>
+      </c>
+      <c r="F19" t="inlineStr">
+        <is>
+          <t>iwanryzij</t>
+        </is>
+      </c>
+      <c r="G19" t="n">
+        <v>114</v>
+      </c>
+      <c r="H19" t="n">
+        <v>21</v>
+      </c>
+    </row>
+    <row r="20">
+      <c r="A20" s="1" t="n">
+        <v>18</v>
+      </c>
+      <c r="B20" t="inlineStr">
+        <is>
+          <t>Слабнова Дарья Андреевна</t>
+        </is>
+      </c>
+      <c r="C20" t="n">
+        <v>2381</v>
+      </c>
+      <c r="D20" t="inlineStr">
+        <is>
+          <t>dashaslabnova@gmail.com</t>
+        </is>
+      </c>
+      <c r="E20" t="inlineStr">
+        <is>
+          <t>dashasl</t>
+        </is>
+      </c>
+      <c r="F20" t="inlineStr">
+        <is>
+          <t>dashasl</t>
+        </is>
+      </c>
+      <c r="G20" t="n">
+        <v>113</v>
+      </c>
+      <c r="H20" t="n">
+        <v>21</v>
+      </c>
+    </row>
+    <row r="21">
+      <c r="A21" s="1" t="n">
+        <v>19</v>
+      </c>
+      <c r="B21" t="inlineStr">
+        <is>
+          <t>Соколов Сергей Александрович</t>
+        </is>
+      </c>
+      <c r="C21" t="n">
+        <v>2381</v>
+      </c>
+      <c r="D21" t="inlineStr">
+        <is>
+          <t>sokolovserej@gmail.com</t>
+        </is>
+      </c>
+      <c r="E21" t="inlineStr">
+        <is>
+          <t>serejs</t>
+        </is>
+      </c>
+      <c r="F21" t="inlineStr">
+        <is>
+          <t>serejs</t>
+        </is>
+      </c>
+      <c r="G21" t="n">
+        <v>113</v>
+      </c>
+      <c r="H21" t="n">
+        <v>21</v>
+      </c>
+    </row>
+    <row r="22">
+      <c r="A22" s="1" t="n">
+        <v>20</v>
+      </c>
+      <c r="B22" t="inlineStr">
+        <is>
+          <t>Тищенко Артем Михайлович</t>
+        </is>
+      </c>
+      <c r="C22" t="n">
+        <v>2381</v>
+      </c>
+      <c r="D22" t="inlineStr">
+        <is>
+          <t>super.art-tish@yandex.ru</t>
+        </is>
+      </c>
+      <c r="E22" t="inlineStr">
+        <is>
+          <t>arttish</t>
+        </is>
+      </c>
+      <c r="F22" t="inlineStr">
+        <is>
+          <t>arttish</t>
+        </is>
+      </c>
+      <c r="G22" t="n">
+        <v>113</v>
+      </c>
+      <c r="H22" t="n">
+        <v>21</v>
+      </c>
+    </row>
+    <row r="23">
+      <c r="A23" s="1" t="n">
+        <v>21</v>
+      </c>
+      <c r="B23" t="inlineStr">
+        <is>
+          <t>Фомина Алина Константиновна</t>
+        </is>
+      </c>
+      <c r="C23" t="n">
+        <v>2381</v>
+      </c>
+      <c r="D23" t="inlineStr">
+        <is>
+          <t>alinaid17@gmail.com</t>
+        </is>
+      </c>
+      <c r="E23" t="inlineStr">
+        <is>
+          <t>wiwiwooii</t>
+        </is>
+      </c>
+      <c r="F23" t="inlineStr">
+        <is>
+          <t>Алина Фомина</t>
+        </is>
+      </c>
+      <c r="G23" t="n">
+        <v>113</v>
+      </c>
+      <c r="H23" t="n">
+        <v>21</v>
+      </c>
+    </row>
+    <row r="24">
+      <c r="A24" s="1" t="n">
+        <v>22</v>
+      </c>
+      <c r="B24" t="inlineStr">
+        <is>
+          <t>Шляхтин Максим Дмитриевич</t>
+        </is>
+      </c>
+      <c r="C24" t="n">
+        <v>2381</v>
+      </c>
+      <c r="D24" t="inlineStr">
+        <is>
+          <t>maxim.shlyahtin@yandex.ru</t>
+        </is>
+      </c>
+      <c r="E24" t="inlineStr">
+        <is>
+          <t>mrekk-hub</t>
+        </is>
+      </c>
+      <c r="F24" t="inlineStr">
+        <is>
+          <t>Максим Шляхтин</t>
+        </is>
+      </c>
+      <c r="G24" t="n">
+        <v>113</v>
+      </c>
+      <c r="H24" t="n">
+        <v>21</v>
+      </c>
+    </row>
+    <row r="25">
+      <c r="A25" s="1" t="n">
+        <v>23</v>
+      </c>
+      <c r="B25" t="inlineStr">
+        <is>
+          <t>Аникина Дарья Руслановна</t>
+        </is>
+      </c>
+      <c r="C25" t="n">
+        <v>2381</v>
+      </c>
+      <c r="D25" t="inlineStr">
+        <is>
+          <t>darya_anikina_03@mail.ru</t>
+        </is>
+      </c>
+      <c r="E25" t="inlineStr">
+        <is>
+          <t>daryanikina</t>
+        </is>
+      </c>
+      <c r="F25" t="inlineStr">
+        <is>
+          <t>Darya_anikina</t>
+        </is>
+      </c>
+      <c r="G25" t="n">
+        <v>4</v>
+      </c>
+      <c r="H25" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="26">
+      <c r="A26" s="1" t="n">
+        <v>24</v>
+      </c>
+      <c r="B26" t="inlineStr">
+        <is>
+          <t>Бат Очир Билгуундалай</t>
+        </is>
+      </c>
+      <c r="C26" t="n">
+        <v>2381</v>
+      </c>
+      <c r="D26" t="inlineStr">
+        <is>
+          <t>bek157390@gmail.com</t>
+        </is>
+      </c>
+      <c r="E26" t="inlineStr">
+        <is>
+          <t>bilguundalai99</t>
+        </is>
+      </c>
+      <c r="F26" t="inlineStr">
+        <is>
+          <t>Bat Ochir Bilguundalai</t>
+        </is>
+      </c>
+      <c r="G26" t="n">
+        <v>0</v>
+      </c>
+      <c r="H26" t="n">
+        <v>0</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <sheetPr>
+    <outlinePr summaryBelow="1" summaryRight="1"/>
+    <pageSetUpPr/>
+  </sheetPr>
+  <dimension ref="A1:H26"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A1" sqref="A1"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
+  <sheetData>
+    <row r="1">
+      <c r="B1" s="1" t="inlineStr">
+        <is>
+          <t>ФИО</t>
+        </is>
+      </c>
+      <c r="C1" s="1" t="inlineStr">
+        <is>
+          <t>Группа</t>
+        </is>
+      </c>
+      <c r="D1" s="1" t="inlineStr">
+        <is>
+          <t>email</t>
+        </is>
+      </c>
+      <c r="E1" s="1" t="inlineStr">
+        <is>
+          <t>github</t>
+        </is>
+      </c>
+      <c r="F1" s="1" t="inlineStr">
+        <is>
+          <t>e.moevm.info</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>Итого</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
+          <t>Оценка</t>
+        </is>
+      </c>
+    </row>
+    <row r="2">
+      <c r="A2" s="1" t="n">
+        <v>0</v>
+      </c>
+      <c r="B2" t="inlineStr">
+        <is>
+          <t>Апарина Тамила Дмитриевна</t>
+        </is>
+      </c>
+      <c r="C2" t="n">
+        <v>2381</v>
+      </c>
+      <c r="D2" t="inlineStr">
+        <is>
+          <t>millergloria18t@gmail.com</t>
+        </is>
+      </c>
+      <c r="E2" t="inlineStr">
+        <is>
+          <t>tamilka17</t>
+        </is>
+      </c>
+      <c r="F2" t="inlineStr">
+        <is>
+          <t>tamilkaa17.</t>
+        </is>
+      </c>
+      <c r="G2" t="n">
+        <v>0</v>
+      </c>
+      <c r="H2" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="3">
+      <c r="A3" s="1" t="n">
+        <v>1</v>
+      </c>
+      <c r="B3" t="inlineStr">
+        <is>
+          <t>Богатов Илья Алексеевич</t>
+        </is>
+      </c>
+      <c r="C3" t="n">
+        <v>2381</v>
+      </c>
+      <c r="D3" t="inlineStr">
+        <is>
+          <t>bogatov2021@mail.ru</t>
+        </is>
+      </c>
+      <c r="E3" t="inlineStr">
+        <is>
+          <t>cuga77</t>
+        </is>
+      </c>
+      <c r="F3" t="inlineStr">
+        <is>
+          <t>cuga</t>
+        </is>
+      </c>
+      <c r="G3" t="n">
+        <v>26</v>
+      </c>
+      <c r="H3" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="4">
+      <c r="A4" s="1" t="n">
+        <v>2</v>
+      </c>
+      <c r="B4" t="inlineStr">
+        <is>
+          <t>Газукина Дарья Денисовна</t>
+        </is>
+      </c>
+      <c r="C4" t="n">
+        <v>2381</v>
+      </c>
+      <c r="D4" t="inlineStr">
+        <is>
+          <t>dariaomnom@gmail.com</t>
+        </is>
+      </c>
+      <c r="E4" t="inlineStr">
+        <is>
+          <t>dariaomnom</t>
+        </is>
+      </c>
+      <c r="F4" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> Дарья Газукина</t>
+        </is>
+      </c>
+      <c r="G4" t="n">
+        <v>74</v>
+      </c>
+      <c r="H4" t="n">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="5">
+      <c r="A5" s="1" t="n">
+        <v>3</v>
+      </c>
+      <c r="B5" t="inlineStr">
+        <is>
+          <t>Двиков Даниил Владиславович</t>
+        </is>
+      </c>
+      <c r="C5" t="n">
+        <v>2381</v>
+      </c>
+      <c r="D5" t="inlineStr">
+        <is>
+          <t>danillafuture@gmail.com</t>
+        </is>
+      </c>
+      <c r="E5" t="inlineStr">
+        <is>
+          <t>daniildvikov</t>
+        </is>
+      </c>
+      <c r="F5" t="inlineStr">
+        <is>
+          <t>Даниил Двиков</t>
+        </is>
+      </c>
+      <c r="G5" t="n">
+        <v>67</v>
+      </c>
+      <c r="H5" t="n">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="6">
+      <c r="A6" s="1" t="n">
+        <v>4</v>
+      </c>
+      <c r="B6" t="inlineStr">
+        <is>
+          <t>Долотов Никита Андреевич</t>
+        </is>
+      </c>
+      <c r="C6" t="n">
+        <v>2381</v>
+      </c>
+      <c r="D6" t="inlineStr">
+        <is>
+          <t>dolotok2@gmail.com</t>
+        </is>
+      </c>
+      <c r="E6" t="inlineStr">
+        <is>
+          <t>do1otov</t>
+        </is>
+      </c>
+      <c r="F6" t="inlineStr">
+        <is>
+          <t>Никита Долотов (do1otov)</t>
+        </is>
+      </c>
+      <c r="G6" t="n">
+        <v>74</v>
+      </c>
+      <c r="H6" t="n">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="7">
+      <c r="A7" s="1" t="n">
+        <v>5</v>
+      </c>
+      <c r="B7" t="inlineStr">
+        <is>
+          <t>Зазуля Илья Анатольевич</t>
+        </is>
+      </c>
+      <c r="C7" t="n">
+        <v>2381</v>
+      </c>
+      <c r="D7" t="inlineStr">
+        <is>
+          <t>zazulya_i@mail.ru</t>
+        </is>
+      </c>
+      <c r="E7" t="inlineStr">
+        <is>
+          <t>ascens1ve</t>
+        </is>
+      </c>
+      <c r="F7" t="inlineStr">
+        <is>
+          <t>ascensive</t>
+        </is>
+      </c>
+      <c r="G7" t="n">
+        <v>74</v>
+      </c>
+      <c r="H7" t="n">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="8">
+      <c r="A8" s="1" t="n">
+        <v>6</v>
+      </c>
+      <c r="B8" t="inlineStr">
+        <is>
+          <t>Заметаев Михаил Алексеевич</t>
+        </is>
+      </c>
+      <c r="C8" t="n">
+        <v>2381</v>
+      </c>
+      <c r="D8" t="inlineStr">
+        <is>
+          <t>mikhailzametaev@gmail.com</t>
+        </is>
+      </c>
+      <c r="E8" t="inlineStr">
+        <is>
+          <t>qwers451</t>
+        </is>
+      </c>
+      <c r="F8" t="inlineStr">
+        <is>
+          <t>1449</t>
+        </is>
+      </c>
+      <c r="G8" t="n">
+        <v>18</v>
+      </c>
+      <c r="H8" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="9">
+      <c r="A9" s="1" t="n">
+        <v>7</v>
+      </c>
+      <c r="B9" t="inlineStr">
+        <is>
+          <t>Ильясов Марк Ренатович</t>
+        </is>
+      </c>
+      <c r="C9" t="n">
+        <v>2381</v>
+      </c>
+      <c r="D9" t="inlineStr">
+        <is>
+          <t>monsier.sadness@gmail.com</t>
+        </is>
+      </c>
+      <c r="E9" t="inlineStr">
+        <is>
+          <t>monsier-chess</t>
+        </is>
+      </c>
+      <c r="F9" t="inlineStr">
+        <is>
+          <t>monsier-sadness</t>
+        </is>
+      </c>
+      <c r="G9" t="n">
+        <v>58</v>
+      </c>
+      <c r="H9" t="n">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="10">
+      <c r="A10" s="1" t="n">
+        <v>8</v>
+      </c>
+      <c r="B10" t="inlineStr">
+        <is>
+          <t>Комосский Егор Артемович</t>
+        </is>
+      </c>
+      <c r="C10" t="n">
+        <v>2381</v>
+      </c>
+      <c r="D10" t="inlineStr">
+        <is>
+          <t>fivehellday@gmail.com</t>
+        </is>
+      </c>
+      <c r="E10" t="inlineStr"/>
+      <c r="F10" t="inlineStr"/>
+      <c r="G10" t="n">
+        <v>74</v>
+      </c>
+      <c r="H10" t="n">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="11">
+      <c r="A11" s="1" t="n">
+        <v>9</v>
+      </c>
+      <c r="B11" t="inlineStr">
+        <is>
+          <t>Кривов Савелий Алексеевич</t>
+        </is>
+      </c>
+      <c r="C11" t="n">
+        <v>2381</v>
+      </c>
+      <c r="D11" t="inlineStr">
+        <is>
+          <t>krivovsaveliy28@gmail.com</t>
+        </is>
+      </c>
+      <c r="E11" t="inlineStr">
+        <is>
+          <t>saveliykrivov</t>
+        </is>
+      </c>
+      <c r="F11" t="inlineStr">
+        <is>
+          <t>Савелий Кривов</t>
+        </is>
+      </c>
+      <c r="G11" t="n">
+        <v>74</v>
+      </c>
+      <c r="H11" t="n">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="12">
+      <c r="A12" s="1" t="n">
+        <v>10</v>
+      </c>
+      <c r="B12" t="inlineStr">
+        <is>
+          <t>Кузнецов Илья Игоревич</t>
+        </is>
+      </c>
+      <c r="C12" t="n">
+        <v>2381</v>
+      </c>
+      <c r="D12" t="inlineStr">
+        <is>
+          <t>kuznecovilya12@gmail.com</t>
+        </is>
+      </c>
+      <c r="E12" t="inlineStr">
+        <is>
+          <t>enshxx</t>
+        </is>
+      </c>
+      <c r="F12" t="inlineStr">
+        <is>
+          <t>enshx</t>
+        </is>
+      </c>
+      <c r="G12" t="n">
+        <v>74</v>
+      </c>
+      <c r="H12" t="n">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="13">
+      <c r="A13" s="1" t="n">
+        <v>11</v>
+      </c>
+      <c r="B13" t="inlineStr">
+        <is>
+          <t>Лисицкий Степан Александрович</t>
+        </is>
+      </c>
+      <c r="C13" t="n">
+        <v>2381</v>
+      </c>
+      <c r="D13" t="inlineStr">
+        <is>
+          <t>stefanlis123@gmail.com</t>
+        </is>
+      </c>
+      <c r="E13" t="inlineStr">
+        <is>
+          <t>stefachik</t>
+        </is>
+      </c>
+      <c r="F13" t="inlineStr">
+        <is>
+          <t>stefanchik</t>
+        </is>
+      </c>
+      <c r="G13" t="n">
+        <v>74</v>
+      </c>
+      <c r="H13" t="n">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="14">
+      <c r="A14" s="1" t="n">
+        <v>12</v>
+      </c>
+      <c r="B14" t="inlineStr">
+        <is>
+          <t>Мавликаев Иван Андреевич</t>
+        </is>
+      </c>
+      <c r="C14" t="n">
+        <v>2381</v>
+      </c>
+      <c r="D14" t="inlineStr">
+        <is>
+          <t>zaufman@mail.ru</t>
+        </is>
+      </c>
+      <c r="E14" t="inlineStr">
+        <is>
+          <t>ivanmavlikaev</t>
+        </is>
+      </c>
+      <c r="F14" t="inlineStr">
+        <is>
+          <t>ivanmavlikaev</t>
+        </is>
+      </c>
+      <c r="G14" t="n">
+        <v>74</v>
+      </c>
+      <c r="H14" t="n">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="15">
+      <c r="A15" s="1" t="n">
+        <v>13</v>
+      </c>
+      <c r="B15" t="inlineStr">
+        <is>
+          <t>Маленковская Екатерина Андреевна</t>
+        </is>
+      </c>
+      <c r="C15" t="n">
+        <v>2381</v>
+      </c>
+      <c r="D15" t="inlineStr">
+        <is>
+          <t>ekaterina.m.04@mail.ru</t>
+        </is>
+      </c>
+      <c r="E15" t="inlineStr">
+        <is>
+          <t>mkathrin</t>
+        </is>
+      </c>
+      <c r="F15" t="inlineStr">
+        <is>
+          <t>mkathrin</t>
+        </is>
+      </c>
+      <c r="G15" t="n">
+        <v>4</v>
+      </c>
+      <c r="H15" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="16">
+      <c r="A16" s="1" t="n">
+        <v>14</v>
+      </c>
+      <c r="B16" t="inlineStr">
+        <is>
+          <t>Малюская Дарья Ивановна</t>
+        </is>
+      </c>
+      <c r="C16" t="n">
+        <v>2381</v>
+      </c>
+      <c r="D16" t="inlineStr">
+        <is>
+          <t>dasha163463@gmail.com</t>
+        </is>
+      </c>
+      <c r="E16" t="inlineStr">
+        <is>
+          <t>daryamalyuskaya</t>
+        </is>
+      </c>
+      <c r="F16" t="inlineStr">
+        <is>
+          <t>moiruki</t>
+        </is>
+      </c>
+      <c r="G16" t="n">
+        <v>67</v>
+      </c>
+      <c r="H16" t="n">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="17">
+      <c r="A17" s="1" t="n">
+        <v>15</v>
+      </c>
+      <c r="B17" t="inlineStr">
+        <is>
+          <t>Полежаев Андрей Александрович</t>
+        </is>
+      </c>
+      <c r="C17" t="n">
+        <v>2381</v>
+      </c>
+      <c r="D17" t="inlineStr">
+        <is>
+          <t>andrejpolezhaev5909@gmail.com</t>
+        </is>
+      </c>
+      <c r="E17" t="inlineStr">
+        <is>
+          <t>andrew2657</t>
+        </is>
+      </c>
+      <c r="F17" t="inlineStr">
+        <is>
+          <t>Полежаев Андрей</t>
+        </is>
+      </c>
+      <c r="G17" t="n">
+        <v>67</v>
+      </c>
+      <c r="H17" t="n">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="18">
+      <c r="A18" s="1" t="n">
+        <v>16</v>
+      </c>
+      <c r="B18" t="inlineStr">
+        <is>
+          <t>Потапова Дарья Максимовна</t>
+        </is>
+      </c>
+      <c r="C18" t="n">
+        <v>2381</v>
+      </c>
+      <c r="D18" t="inlineStr">
+        <is>
+          <t>dm.potapova@gmail.com</t>
+        </is>
+      </c>
+      <c r="E18" t="inlineStr">
+        <is>
+          <t>daryapotapovaa</t>
+        </is>
+      </c>
+      <c r="F18" t="inlineStr">
+        <is>
+          <t>Дарья Потапова</t>
+        </is>
+      </c>
+      <c r="G18" t="n">
+        <v>74</v>
+      </c>
+      <c r="H18" t="n">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="19">
+      <c r="A19" s="1" t="n">
+        <v>17</v>
+      </c>
+      <c r="B19" t="inlineStr">
+        <is>
+          <t>Рыжиков Иван Сергеевич</t>
+        </is>
+      </c>
+      <c r="C19" t="n">
+        <v>2381</v>
+      </c>
+      <c r="D19" t="inlineStr">
+        <is>
+          <t>iwanryzij@yandex.ru</t>
+        </is>
+      </c>
+      <c r="E19" t="inlineStr">
+        <is>
+          <t>teum3048</t>
+        </is>
+      </c>
+      <c r="F19" t="inlineStr">
+        <is>
+          <t>iwanryzij</t>
+        </is>
+      </c>
+      <c r="G19" t="n">
+        <v>74</v>
+      </c>
+      <c r="H19" t="n">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="20">
+      <c r="A20" s="1" t="n">
+        <v>18</v>
+      </c>
+      <c r="B20" t="inlineStr">
+        <is>
+          <t>Слабнова Дарья Андреевна</t>
+        </is>
+      </c>
+      <c r="C20" t="n">
+        <v>2381</v>
+      </c>
+      <c r="D20" t="inlineStr">
+        <is>
+          <t>dashaslabnova@gmail.com</t>
+        </is>
+      </c>
+      <c r="E20" t="inlineStr">
+        <is>
+          <t>dashasl</t>
+        </is>
+      </c>
+      <c r="F20" t="inlineStr">
+        <is>
+          <t>dashasl</t>
+        </is>
+      </c>
+      <c r="G20" t="n">
+        <v>74</v>
+      </c>
+      <c r="H20" t="n">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="21">
+      <c r="A21" s="1" t="n">
+        <v>19</v>
+      </c>
+      <c r="B21" t="inlineStr">
+        <is>
+          <t>Соколов Сергей Александрович</t>
+        </is>
+      </c>
+      <c r="C21" t="n">
+        <v>2381</v>
+      </c>
+      <c r="D21" t="inlineStr">
+        <is>
+          <t>sokolovserej@gmail.com</t>
+        </is>
+      </c>
+      <c r="E21" t="inlineStr">
+        <is>
+          <t>serejs</t>
+        </is>
+      </c>
+      <c r="F21" t="inlineStr">
+        <is>
+          <t>serejs</t>
+        </is>
+      </c>
+      <c r="G21" t="n">
+        <v>74</v>
+      </c>
+      <c r="H21" t="n">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="22">
+      <c r="A22" s="1" t="n">
+        <v>20</v>
+      </c>
+      <c r="B22" t="inlineStr">
+        <is>
+          <t>Тищенко Артем Михайлович</t>
+        </is>
+      </c>
+      <c r="C22" t="n">
+        <v>2381</v>
+      </c>
+      <c r="D22" t="inlineStr">
+        <is>
+          <t>super.art-tish@yandex.ru</t>
+        </is>
+      </c>
+      <c r="E22" t="inlineStr">
+        <is>
+          <t>arttish</t>
+        </is>
+      </c>
+      <c r="F22" t="inlineStr">
+        <is>
+          <t>arttish</t>
+        </is>
+      </c>
+      <c r="G22" t="n">
+        <v>74</v>
+      </c>
+      <c r="H22" t="n">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="23">
+      <c r="A23" s="1" t="n">
+        <v>21</v>
+      </c>
+      <c r="B23" t="inlineStr">
+        <is>
+          <t>Фомина Алина Константиновна</t>
+        </is>
+      </c>
+      <c r="C23" t="n">
+        <v>2381</v>
+      </c>
+      <c r="D23" t="inlineStr">
+        <is>
+          <t>alinaid17@gmail.com</t>
+        </is>
+      </c>
+      <c r="E23" t="inlineStr">
+        <is>
+          <t>wiwiwooii</t>
+        </is>
+      </c>
+      <c r="F23" t="inlineStr">
+        <is>
+          <t>Алина Фомина</t>
+        </is>
+      </c>
+      <c r="G23" t="n">
+        <v>74</v>
+      </c>
+      <c r="H23" t="n">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="24">
+      <c r="A24" s="1" t="n">
+        <v>22</v>
+      </c>
+      <c r="B24" t="inlineStr">
+        <is>
+          <t>Шляхтин Максим Дмитриевич</t>
+        </is>
+      </c>
+      <c r="C24" t="n">
+        <v>2381</v>
+      </c>
+      <c r="D24" t="inlineStr">
+        <is>
+          <t>maxim.shlyahtin@yandex.ru</t>
+        </is>
+      </c>
+      <c r="E24" t="inlineStr">
+        <is>
+          <t>mrekk-hub</t>
+        </is>
+      </c>
+      <c r="F24" t="inlineStr">
+        <is>
+          <t>Максим Шляхтин</t>
+        </is>
+      </c>
+      <c r="G24" t="n">
+        <v>74</v>
+      </c>
+      <c r="H24" t="n">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="25">
+      <c r="A25" s="1" t="n">
+        <v>23</v>
+      </c>
+      <c r="B25" t="inlineStr">
+        <is>
+          <t>Аникина Дарья Руслановна</t>
+        </is>
+      </c>
+      <c r="C25" t="n">
+        <v>2381</v>
+      </c>
+      <c r="D25" t="inlineStr">
+        <is>
+          <t>darya_anikina_03@mail.ru</t>
+        </is>
+      </c>
+      <c r="E25" t="inlineStr">
+        <is>
+          <t>daryanikina</t>
+        </is>
+      </c>
+      <c r="F25" t="inlineStr">
+        <is>
+          <t>Darya_anikina</t>
+        </is>
+      </c>
+      <c r="G25" t="n">
+        <v>25</v>
+      </c>
+      <c r="H25" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="26">
+      <c r="A26" s="1" t="n">
+        <v>24</v>
+      </c>
+      <c r="B26" t="inlineStr">
+        <is>
+          <t>Бат Очир Билгуундалай</t>
+        </is>
+      </c>
+      <c r="C26" t="n">
+        <v>2381</v>
+      </c>
+      <c r="D26" t="inlineStr">
+        <is>
+          <t>bek157390@gmail.com</t>
+        </is>
+      </c>
+      <c r="E26" t="inlineStr">
+        <is>
+          <t>bilguundalai99</t>
+        </is>
+      </c>
+      <c r="F26" t="inlineStr">
+        <is>
+          <t>Bat Ochir Bilguundalai</t>
+        </is>
+      </c>
+      <c r="G26" t="n">
+        <v>2</v>
+      </c>
+      <c r="H26" t="n">
+        <v>0</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <sheetPr>
+    <outlinePr summaryBelow="1" summaryRight="1"/>
+    <pageSetUpPr/>
+  </sheetPr>
+  <dimension ref="A1:H26"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A1" sqref="A1"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
+  <sheetData>
+    <row r="1">
+      <c r="B1" s="1" t="inlineStr">
+        <is>
+          <t>ФИО</t>
+        </is>
+      </c>
+      <c r="C1" s="1" t="inlineStr">
+        <is>
+          <t>Группа</t>
+        </is>
+      </c>
+      <c r="D1" s="1" t="inlineStr">
+        <is>
+          <t>email</t>
+        </is>
+      </c>
+      <c r="E1" s="1" t="inlineStr">
+        <is>
+          <t>github</t>
+        </is>
+      </c>
+      <c r="F1" s="1" t="inlineStr">
+        <is>
+          <t>e.moevm.info</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>Итого</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
+          <t>Оценка</t>
+        </is>
+      </c>
+    </row>
+    <row r="2">
+      <c r="A2" s="1" t="n">
+        <v>0</v>
+      </c>
+      <c r="B2" t="inlineStr">
+        <is>
+          <t>Апарина Тамила Дмитриевна</t>
+        </is>
+      </c>
+      <c r="C2" t="n">
+        <v>2381</v>
+      </c>
+      <c r="D2" t="inlineStr">
+        <is>
+          <t>millergloria18t@gmail.com</t>
+        </is>
+      </c>
+      <c r="E2" t="inlineStr">
+        <is>
+          <t>tamilka17</t>
+        </is>
+      </c>
+      <c r="F2" t="inlineStr">
+        <is>
+          <t>tamilkaa17.</t>
+        </is>
+      </c>
+      <c r="G2" t="n">
+        <v>0</v>
+      </c>
+      <c r="H2" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="3">
+      <c r="A3" s="1" t="n">
+        <v>1</v>
+      </c>
+      <c r="B3" t="inlineStr">
+        <is>
+          <t>Богатов Илья Алексеевич</t>
+        </is>
+      </c>
+      <c r="C3" t="n">
+        <v>2381</v>
+      </c>
+      <c r="D3" t="inlineStr">
+        <is>
+          <t>bogatov2021@mail.ru</t>
+        </is>
+      </c>
+      <c r="E3" t="inlineStr">
+        <is>
+          <t>cuga77</t>
+        </is>
+      </c>
+      <c r="F3" t="inlineStr">
+        <is>
+          <t>cuga</t>
+        </is>
+      </c>
+      <c r="G3" t="n">
+        <v>26</v>
+      </c>
+      <c r="H3" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="4">
+      <c r="A4" s="1" t="n">
+        <v>2</v>
+      </c>
+      <c r="B4" t="inlineStr">
+        <is>
+          <t>Газукина Дарья Денисовна</t>
+        </is>
+      </c>
+      <c r="C4" t="n">
+        <v>2381</v>
+      </c>
+      <c r="D4" t="inlineStr">
+        <is>
+          <t>dariaomnom@gmail.com</t>
+        </is>
+      </c>
+      <c r="E4" t="inlineStr">
+        <is>
+          <t>dariaomnom</t>
+        </is>
+      </c>
+      <c r="F4" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> Дарья Газукина</t>
+        </is>
+      </c>
+      <c r="G4" t="n">
+        <v>74</v>
+      </c>
+      <c r="H4" t="n">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="5">
+      <c r="A5" s="1" t="n">
+        <v>3</v>
+      </c>
+      <c r="B5" t="inlineStr">
+        <is>
+          <t>Двиков Даниил Владиславович</t>
+        </is>
+      </c>
+      <c r="C5" t="n">
+        <v>2381</v>
+      </c>
+      <c r="D5" t="inlineStr">
+        <is>
+          <t>danillafuture@gmail.com</t>
+        </is>
+      </c>
+      <c r="E5" t="inlineStr">
+        <is>
+          <t>daniildvikov</t>
+        </is>
+      </c>
+      <c r="F5" t="inlineStr">
+        <is>
+          <t>Даниил Двиков</t>
+        </is>
+      </c>
+      <c r="G5" t="n">
+        <v>67</v>
+      </c>
+      <c r="H5" t="n">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="6">
+      <c r="A6" s="1" t="n">
+        <v>4</v>
+      </c>
+      <c r="B6" t="inlineStr">
+        <is>
+          <t>Долотов Никита Андреевич</t>
+        </is>
+      </c>
+      <c r="C6" t="n">
+        <v>2381</v>
+      </c>
+      <c r="D6" t="inlineStr">
+        <is>
+          <t>dolotok2@gmail.com</t>
+        </is>
+      </c>
+      <c r="E6" t="inlineStr">
+        <is>
+          <t>do1otov</t>
+        </is>
+      </c>
+      <c r="F6" t="inlineStr">
+        <is>
+          <t>Никита Долотов (do1otov)</t>
+        </is>
+      </c>
+      <c r="G6" t="n">
+        <v>74</v>
+      </c>
+      <c r="H6" t="n">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="7">
+      <c r="A7" s="1" t="n">
+        <v>5</v>
+      </c>
+      <c r="B7" t="inlineStr">
+        <is>
+          <t>Зазуля Илья Анатольевич</t>
+        </is>
+      </c>
+      <c r="C7" t="n">
+        <v>2381</v>
+      </c>
+      <c r="D7" t="inlineStr">
+        <is>
+          <t>zazulya_i@mail.ru</t>
+        </is>
+      </c>
+      <c r="E7" t="inlineStr">
+        <is>
+          <t>ascens1ve</t>
+        </is>
+      </c>
+      <c r="F7" t="inlineStr">
+        <is>
+          <t>ascensive</t>
+        </is>
+      </c>
+      <c r="G7" t="n">
+        <v>74</v>
+      </c>
+      <c r="H7" t="n">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="8">
+      <c r="A8" s="1" t="n">
+        <v>6</v>
+      </c>
+      <c r="B8" t="inlineStr">
+        <is>
+          <t>Заметаев Михаил Алексеевич</t>
+        </is>
+      </c>
+      <c r="C8" t="n">
+        <v>2381</v>
+      </c>
+      <c r="D8" t="inlineStr">
+        <is>
+          <t>mikhailzametaev@gmail.com</t>
+        </is>
+      </c>
+      <c r="E8" t="inlineStr">
+        <is>
+          <t>qwers451</t>
+        </is>
+      </c>
+      <c r="F8" t="inlineStr">
+        <is>
+          <t>1449</t>
+        </is>
+      </c>
+      <c r="G8" t="n">
+        <v>18</v>
+      </c>
+      <c r="H8" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="9">
+      <c r="A9" s="1" t="n">
+        <v>7</v>
+      </c>
+      <c r="B9" t="inlineStr">
+        <is>
+          <t>Ильясов Марк Ренатович</t>
+        </is>
+      </c>
+      <c r="C9" t="n">
+        <v>2381</v>
+      </c>
+      <c r="D9" t="inlineStr">
+        <is>
+          <t>monsier.sadness@gmail.com</t>
+        </is>
+      </c>
+      <c r="E9" t="inlineStr">
+        <is>
+          <t>monsier-chess</t>
+        </is>
+      </c>
+      <c r="F9" t="inlineStr">
+        <is>
+          <t>monsier-sadness</t>
+        </is>
+      </c>
+      <c r="G9" t="n">
+        <v>58</v>
+      </c>
+      <c r="H9" t="n">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="10">
+      <c r="A10" s="1" t="n">
+        <v>8</v>
+      </c>
+      <c r="B10" t="inlineStr">
+        <is>
+          <t>Комосский Егор Артемович</t>
+        </is>
+      </c>
+      <c r="C10" t="n">
+        <v>2381</v>
+      </c>
+      <c r="D10" t="inlineStr">
+        <is>
+          <t>fivehellday@gmail.com</t>
+        </is>
+      </c>
+      <c r="E10" t="inlineStr"/>
+      <c r="F10" t="inlineStr"/>
+      <c r="G10" t="n">
+        <v>74</v>
+      </c>
+      <c r="H10" t="n">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="11">
+      <c r="A11" s="1" t="n">
+        <v>9</v>
+      </c>
+      <c r="B11" t="inlineStr">
+        <is>
+          <t>Кривов Савелий Алексеевич</t>
+        </is>
+      </c>
+      <c r="C11" t="n">
+        <v>2381</v>
+      </c>
+      <c r="D11" t="inlineStr">
+        <is>
+          <t>krivovsaveliy28@gmail.com</t>
+        </is>
+      </c>
+      <c r="E11" t="inlineStr">
+        <is>
+          <t>saveliykrivov</t>
+        </is>
+      </c>
+      <c r="F11" t="inlineStr">
+        <is>
+          <t>Савелий Кривов</t>
+        </is>
+      </c>
+      <c r="G11" t="n">
+        <v>74</v>
+      </c>
+      <c r="H11" t="n">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="12">
+      <c r="A12" s="1" t="n">
+        <v>10</v>
+      </c>
+      <c r="B12" t="inlineStr">
+        <is>
+          <t>Кузнецов Илья Игоревич</t>
+        </is>
+      </c>
+      <c r="C12" t="n">
+        <v>2381</v>
+      </c>
+      <c r="D12" t="inlineStr">
+        <is>
+          <t>kuznecovilya12@gmail.com</t>
+        </is>
+      </c>
+      <c r="E12" t="inlineStr">
+        <is>
+          <t>enshxx</t>
+        </is>
+      </c>
+      <c r="F12" t="inlineStr">
+        <is>
+          <t>enshx</t>
+        </is>
+      </c>
+      <c r="G12" t="n">
+        <v>74</v>
+      </c>
+      <c r="H12" t="n">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="13">
+      <c r="A13" s="1" t="n">
+        <v>11</v>
+      </c>
+      <c r="B13" t="inlineStr">
+        <is>
+          <t>Лисицкий Степан Александрович</t>
+        </is>
+      </c>
+      <c r="C13" t="n">
+        <v>2381</v>
+      </c>
+      <c r="D13" t="inlineStr">
+        <is>
+          <t>stefanlis123@gmail.com</t>
+        </is>
+      </c>
+      <c r="E13" t="inlineStr">
+        <is>
+          <t>stefachik</t>
+        </is>
+      </c>
+      <c r="F13" t="inlineStr">
+        <is>
+          <t>stefanchik</t>
+        </is>
+      </c>
+      <c r="G13" t="n">
+        <v>74</v>
+      </c>
+      <c r="H13" t="n">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="14">
+      <c r="A14" s="1" t="n">
+        <v>12</v>
+      </c>
+      <c r="B14" t="inlineStr">
+        <is>
+          <t>Мавликаев Иван Андреевич</t>
+        </is>
+      </c>
+      <c r="C14" t="n">
+        <v>2381</v>
+      </c>
+      <c r="D14" t="inlineStr">
+        <is>
+          <t>zaufman@mail.ru</t>
+        </is>
+      </c>
+      <c r="E14" t="inlineStr">
+        <is>
+          <t>ivanmavlikaev</t>
+        </is>
+      </c>
+      <c r="F14" t="inlineStr">
+        <is>
+          <t>ivanmavlikaev</t>
+        </is>
+      </c>
+      <c r="G14" t="n">
+        <v>74</v>
+      </c>
+      <c r="H14" t="n">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="15">
+      <c r="A15" s="1" t="n">
+        <v>13</v>
+      </c>
+      <c r="B15" t="inlineStr">
+        <is>
+          <t>Маленковская Екатерина Андреевна</t>
+        </is>
+      </c>
+      <c r="C15" t="n">
+        <v>2381</v>
+      </c>
+      <c r="D15" t="inlineStr">
+        <is>
+          <t>ekaterina.m.04@mail.ru</t>
+        </is>
+      </c>
+      <c r="E15" t="inlineStr">
+        <is>
+          <t>mkathrin</t>
+        </is>
+      </c>
+      <c r="F15" t="inlineStr">
+        <is>
+          <t>mkathrin</t>
+        </is>
+      </c>
+      <c r="G15" t="n">
+        <v>4</v>
+      </c>
+      <c r="H15" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="16">
+      <c r="A16" s="1" t="n">
+        <v>14</v>
+      </c>
+      <c r="B16" t="inlineStr">
+        <is>
+          <t>Малюская Дарья Ивановна</t>
+        </is>
+      </c>
+      <c r="C16" t="n">
+        <v>2381</v>
+      </c>
+      <c r="D16" t="inlineStr">
+        <is>
+          <t>dasha163463@gmail.com</t>
+        </is>
+      </c>
+      <c r="E16" t="inlineStr">
+        <is>
+          <t>daryamalyuskaya</t>
+        </is>
+      </c>
+      <c r="F16" t="inlineStr">
+        <is>
+          <t>moiruki</t>
+        </is>
+      </c>
+      <c r="G16" t="n">
+        <v>67</v>
+      </c>
+      <c r="H16" t="n">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="17">
+      <c r="A17" s="1" t="n">
+        <v>15</v>
+      </c>
+      <c r="B17" t="inlineStr">
+        <is>
+          <t>Полежаев Андрей Александрович</t>
+        </is>
+      </c>
+      <c r="C17" t="n">
+        <v>2381</v>
+      </c>
+      <c r="D17" t="inlineStr">
+        <is>
+          <t>andrejpolezhaev5909@gmail.com</t>
+        </is>
+      </c>
+      <c r="E17" t="inlineStr">
+        <is>
+          <t>andrew2657</t>
+        </is>
+      </c>
+      <c r="F17" t="inlineStr">
+        <is>
+          <t>Полежаев Андрей</t>
+        </is>
+      </c>
+      <c r="G17" t="n">
+        <v>67</v>
+      </c>
+      <c r="H17" t="n">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="18">
+      <c r="A18" s="1" t="n">
+        <v>16</v>
+      </c>
+      <c r="B18" t="inlineStr">
+        <is>
+          <t>Потапова Дарья Максимовна</t>
+        </is>
+      </c>
+      <c r="C18" t="n">
+        <v>2381</v>
+      </c>
+      <c r="D18" t="inlineStr">
+        <is>
+          <t>dm.potapova@gmail.com</t>
+        </is>
+      </c>
+      <c r="E18" t="inlineStr">
+        <is>
+          <t>daryapotapovaa</t>
+        </is>
+      </c>
+      <c r="F18" t="inlineStr">
+        <is>
+          <t>Дарья Потапова</t>
+        </is>
+      </c>
+      <c r="G18" t="n">
+        <v>74</v>
+      </c>
+      <c r="H18" t="n">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="19">
+      <c r="A19" s="1" t="n">
+        <v>17</v>
+      </c>
+      <c r="B19" t="inlineStr">
+        <is>
+          <t>Рыжиков Иван Сергеевич</t>
+        </is>
+      </c>
+      <c r="C19" t="n">
+        <v>2381</v>
+      </c>
+      <c r="D19" t="inlineStr">
+        <is>
+          <t>iwanryzij@yandex.ru</t>
+        </is>
+      </c>
+      <c r="E19" t="inlineStr">
+        <is>
+          <t>teum3048</t>
+        </is>
+      </c>
+      <c r="F19" t="inlineStr">
+        <is>
+          <t>iwanryzij</t>
+        </is>
+      </c>
+      <c r="G19" t="n">
+        <v>74</v>
+      </c>
+      <c r="H19" t="n">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="20">
+      <c r="A20" s="1" t="n">
+        <v>18</v>
+      </c>
+      <c r="B20" t="inlineStr">
+        <is>
+          <t>Слабнова Дарья Андреевна</t>
+        </is>
+      </c>
+      <c r="C20" t="n">
+        <v>2381</v>
+      </c>
+      <c r="D20" t="inlineStr">
+        <is>
+          <t>dashaslabnova@gmail.com</t>
+        </is>
+      </c>
+      <c r="E20" t="inlineStr">
+        <is>
+          <t>dashasl</t>
+        </is>
+      </c>
+      <c r="F20" t="inlineStr">
+        <is>
+          <t>dashasl</t>
+        </is>
+      </c>
+      <c r="G20" t="n">
+        <v>74</v>
+      </c>
+      <c r="H20" t="n">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="21">
+      <c r="A21" s="1" t="n">
+        <v>19</v>
+      </c>
+      <c r="B21" t="inlineStr">
+        <is>
+          <t>Соколов Сергей Александрович</t>
+        </is>
+      </c>
+      <c r="C21" t="n">
+        <v>2381</v>
+      </c>
+      <c r="D21" t="inlineStr">
+        <is>
+          <t>sokolovserej@gmail.com</t>
+        </is>
+      </c>
+      <c r="E21" t="inlineStr">
+        <is>
+          <t>serejs</t>
+        </is>
+      </c>
+      <c r="F21" t="inlineStr">
+        <is>
+          <t>serejs</t>
+        </is>
+      </c>
+      <c r="G21" t="n">
+        <v>74</v>
+      </c>
+      <c r="H21" t="n">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="22">
+      <c r="A22" s="1" t="n">
+        <v>20</v>
+      </c>
+      <c r="B22" t="inlineStr">
+        <is>
+          <t>Тищенко Артем Михайлович</t>
+        </is>
+      </c>
+      <c r="C22" t="n">
+        <v>2381</v>
+      </c>
+      <c r="D22" t="inlineStr">
+        <is>
+          <t>super.art-tish@yandex.ru</t>
+        </is>
+      </c>
+      <c r="E22" t="inlineStr">
+        <is>
+          <t>arttish</t>
+        </is>
+      </c>
+      <c r="F22" t="inlineStr">
+        <is>
+          <t>arttish</t>
+        </is>
+      </c>
+      <c r="G22" t="n">
+        <v>74</v>
+      </c>
+      <c r="H22" t="n">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="23">
+      <c r="A23" s="1" t="n">
+        <v>21</v>
+      </c>
+      <c r="B23" t="inlineStr">
+        <is>
+          <t>Фомина Алина Константиновна</t>
+        </is>
+      </c>
+      <c r="C23" t="n">
+        <v>2381</v>
+      </c>
+      <c r="D23" t="inlineStr">
+        <is>
+          <t>alinaid17@gmail.com</t>
+        </is>
+      </c>
+      <c r="E23" t="inlineStr">
+        <is>
+          <t>wiwiwooii</t>
+        </is>
+      </c>
+      <c r="F23" t="inlineStr">
+        <is>
+          <t>Алина Фомина</t>
+        </is>
+      </c>
+      <c r="G23" t="n">
+        <v>74</v>
+      </c>
+      <c r="H23" t="n">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="24">
+      <c r="A24" s="1" t="n">
+        <v>22</v>
+      </c>
+      <c r="B24" t="inlineStr">
+        <is>
+          <t>Шляхтин Максим Дмитриевич</t>
+        </is>
+      </c>
+      <c r="C24" t="n">
+        <v>2381</v>
+      </c>
+      <c r="D24" t="inlineStr">
+        <is>
+          <t>maxim.shlyahtin@yandex.ru</t>
+        </is>
+      </c>
+      <c r="E24" t="inlineStr">
+        <is>
+          <t>mrekk-hub</t>
+        </is>
+      </c>
+      <c r="F24" t="inlineStr">
+        <is>
+          <t>Максим Шляхтин</t>
+        </is>
+      </c>
+      <c r="G24" t="n">
+        <v>74</v>
+      </c>
+      <c r="H24" t="n">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="25">
+      <c r="A25" s="1" t="n">
+        <v>23</v>
+      </c>
+      <c r="B25" t="inlineStr">
+        <is>
+          <t>Аникина Дарья Руслановна</t>
+        </is>
+      </c>
+      <c r="C25" t="n">
+        <v>2381</v>
+      </c>
+      <c r="D25" t="inlineStr">
+        <is>
+          <t>darya_anikina_03@mail.ru</t>
+        </is>
+      </c>
+      <c r="E25" t="inlineStr">
+        <is>
+          <t>daryanikina</t>
+        </is>
+      </c>
+      <c r="F25" t="inlineStr">
+        <is>
+          <t>Darya_anikina</t>
+        </is>
+      </c>
+      <c r="G25" t="n">
+        <v>25</v>
+      </c>
+      <c r="H25" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="26">
+      <c r="A26" s="1" t="n">
+        <v>24</v>
+      </c>
+      <c r="B26" t="inlineStr">
+        <is>
+          <t>Бат Очир Билгуундалай</t>
+        </is>
+      </c>
+      <c r="C26" t="n">
+        <v>2381</v>
+      </c>
+      <c r="D26" t="inlineStr">
+        <is>
+          <t>bek157390@gmail.com</t>
+        </is>
+      </c>
+      <c r="E26" t="inlineStr">
+        <is>
+          <t>bilguundalai99</t>
+        </is>
+      </c>
+      <c r="F26" t="inlineStr">
+        <is>
+          <t>Bat Ochir Bilguundalai</t>
+        </is>
+      </c>
+      <c r="G26" t="n">
+        <v>2</v>
+      </c>
+      <c r="H26" t="n">
+        <v>0</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <sheetPr>
+    <outlinePr summaryBelow="1" summaryRight="1"/>
+    <pageSetUpPr/>
+  </sheetPr>
+  <dimension ref="A1:H26"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A1" sqref="A1"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
+  <sheetData>
+    <row r="1">
+      <c r="B1" s="1" t="inlineStr">
+        <is>
+          <t>ФИО</t>
+        </is>
+      </c>
+      <c r="C1" s="1" t="inlineStr">
+        <is>
+          <t>Группа</t>
+        </is>
+      </c>
+      <c r="D1" s="1" t="inlineStr">
+        <is>
+          <t>email</t>
+        </is>
+      </c>
+      <c r="E1" s="1" t="inlineStr">
+        <is>
+          <t>github</t>
+        </is>
+      </c>
+      <c r="F1" s="1" t="inlineStr">
+        <is>
+          <t>e.moevm.info</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>Итого</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
+          <t>Оценка</t>
+        </is>
+      </c>
+    </row>
+    <row r="2">
+      <c r="A2" s="1" t="n">
+        <v>0</v>
+      </c>
+      <c r="B2" t="inlineStr">
+        <is>
+          <t>Апарина Тамила Дмитриевна</t>
+        </is>
+      </c>
+      <c r="C2" t="n">
+        <v>2381</v>
+      </c>
+      <c r="D2" t="inlineStr">
+        <is>
+          <t>millergloria18t@gmail.com</t>
+        </is>
+      </c>
+      <c r="E2" t="inlineStr">
+        <is>
+          <t>tamilka17</t>
+        </is>
+      </c>
+      <c r="F2" t="inlineStr">
+        <is>
+          <t>tamilkaa17.</t>
+        </is>
+      </c>
+      <c r="G2" t="n">
+        <v>0</v>
+      </c>
+      <c r="H2" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="3">
+      <c r="A3" s="1" t="n">
+        <v>1</v>
+      </c>
+      <c r="B3" t="inlineStr">
+        <is>
+          <t>Богатов Илья Алексеевич</t>
+        </is>
+      </c>
+      <c r="C3" t="n">
+        <v>2381</v>
+      </c>
+      <c r="D3" t="inlineStr">
+        <is>
+          <t>bogatov2021@mail.ru</t>
+        </is>
+      </c>
+      <c r="E3" t="inlineStr">
+        <is>
+          <t>cuga77</t>
+        </is>
+      </c>
+      <c r="F3" t="inlineStr">
+        <is>
+          <t>cuga</t>
+        </is>
+      </c>
+      <c r="G3" t="n">
+        <v>26</v>
+      </c>
+      <c r="H3" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="4">
+      <c r="A4" s="1" t="n">
+        <v>2</v>
+      </c>
+      <c r="B4" t="inlineStr">
+        <is>
+          <t>Газукина Дарья Денисовна</t>
+        </is>
+      </c>
+      <c r="C4" t="n">
+        <v>2381</v>
+      </c>
+      <c r="D4" t="inlineStr">
+        <is>
+          <t>dariaomnom@gmail.com</t>
+        </is>
+      </c>
+      <c r="E4" t="inlineStr">
+        <is>
+          <t>dariaomnom</t>
+        </is>
+      </c>
+      <c r="F4" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> Дарья Газукина</t>
+        </is>
+      </c>
+      <c r="G4" t="n">
+        <v>74</v>
+      </c>
+      <c r="H4" t="n">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="5">
+      <c r="A5" s="1" t="n">
+        <v>3</v>
+      </c>
+      <c r="B5" t="inlineStr">
+        <is>
+          <t>Двиков Даниил Владиславович</t>
+        </is>
+      </c>
+      <c r="C5" t="n">
+        <v>2381</v>
+      </c>
+      <c r="D5" t="inlineStr">
+        <is>
+          <t>danillafuture@gmail.com</t>
+        </is>
+      </c>
+      <c r="E5" t="inlineStr">
+        <is>
+          <t>daniildvikov</t>
+        </is>
+      </c>
+      <c r="F5" t="inlineStr">
+        <is>
+          <t>Даниил Двиков</t>
+        </is>
+      </c>
+      <c r="G5" t="n">
+        <v>67</v>
+      </c>
+      <c r="H5" t="n">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="6">
+      <c r="A6" s="1" t="n">
+        <v>4</v>
+      </c>
+      <c r="B6" t="inlineStr">
+        <is>
+          <t>Долотов Никита Андреевич</t>
+        </is>
+      </c>
+      <c r="C6" t="n">
+        <v>2381</v>
+      </c>
+      <c r="D6" t="inlineStr">
+        <is>
+          <t>dolotok2@gmail.com</t>
+        </is>
+      </c>
+      <c r="E6" t="inlineStr">
+        <is>
+          <t>do1otov</t>
+        </is>
+      </c>
+      <c r="F6" t="inlineStr">
+        <is>
+          <t>Никита Долотов (do1otov)</t>
+        </is>
+      </c>
+      <c r="G6" t="n">
+        <v>74</v>
+      </c>
+      <c r="H6" t="n">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="7">
+      <c r="A7" s="1" t="n">
+        <v>5</v>
+      </c>
+      <c r="B7" t="inlineStr">
+        <is>
+          <t>Зазуля Илья Анатольевич</t>
+        </is>
+      </c>
+      <c r="C7" t="n">
+        <v>2381</v>
+      </c>
+      <c r="D7" t="inlineStr">
+        <is>
+          <t>zazulya_i@mail.ru</t>
+        </is>
+      </c>
+      <c r="E7" t="inlineStr">
+        <is>
+          <t>ascens1ve</t>
+        </is>
+      </c>
+      <c r="F7" t="inlineStr">
+        <is>
+          <t>ascensive</t>
+        </is>
+      </c>
+      <c r="G7" t="n">
+        <v>74</v>
+      </c>
+      <c r="H7" t="n">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="8">
+      <c r="A8" s="1" t="n">
+        <v>6</v>
+      </c>
+      <c r="B8" t="inlineStr">
+        <is>
+          <t>Заметаев Михаил Алексеевич</t>
+        </is>
+      </c>
+      <c r="C8" t="n">
+        <v>2381</v>
+      </c>
+      <c r="D8" t="inlineStr">
+        <is>
+          <t>mikhailzametaev@gmail.com</t>
+        </is>
+      </c>
+      <c r="E8" t="inlineStr">
+        <is>
+          <t>qwers451</t>
+        </is>
+      </c>
+      <c r="F8" t="inlineStr">
+        <is>
+          <t>1449</t>
+        </is>
+      </c>
+      <c r="G8" t="n">
+        <v>18</v>
+      </c>
+      <c r="H8" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="9">
+      <c r="A9" s="1" t="n">
+        <v>7</v>
+      </c>
+      <c r="B9" t="inlineStr">
+        <is>
+          <t>Ильясов Марк Ренатович</t>
+        </is>
+      </c>
+      <c r="C9" t="n">
+        <v>2381</v>
+      </c>
+      <c r="D9" t="inlineStr">
+        <is>
+          <t>monsier.sadness@gmail.com</t>
+        </is>
+      </c>
+      <c r="E9" t="inlineStr">
+        <is>
+          <t>monsier-chess</t>
+        </is>
+      </c>
+      <c r="F9" t="inlineStr">
+        <is>
+          <t>monsier-sadness</t>
+        </is>
+      </c>
+      <c r="G9" t="n">
+        <v>58</v>
+      </c>
+      <c r="H9" t="n">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="10">
+      <c r="A10" s="1" t="n">
+        <v>8</v>
+      </c>
+      <c r="B10" t="inlineStr">
+        <is>
+          <t>Комосский Егор Артемович</t>
+        </is>
+      </c>
+      <c r="C10" t="n">
+        <v>2381</v>
+      </c>
+      <c r="D10" t="inlineStr">
+        <is>
+          <t>fivehellday@gmail.com</t>
+        </is>
+      </c>
+      <c r="E10" t="inlineStr"/>
+      <c r="F10" t="inlineStr"/>
+      <c r="G10" t="n">
+        <v>74</v>
+      </c>
+      <c r="H10" t="n">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="11">
+      <c r="A11" s="1" t="n">
+        <v>9</v>
+      </c>
+      <c r="B11" t="inlineStr">
+        <is>
+          <t>Кривов Савелий Алексеевич</t>
+        </is>
+      </c>
+      <c r="C11" t="n">
+        <v>2381</v>
+      </c>
+      <c r="D11" t="inlineStr">
+        <is>
+          <t>krivovsaveliy28@gmail.com</t>
+        </is>
+      </c>
+      <c r="E11" t="inlineStr">
+        <is>
+          <t>saveliykrivov</t>
+        </is>
+      </c>
+      <c r="F11" t="inlineStr">
+        <is>
+          <t>Савелий Кривов</t>
+        </is>
+      </c>
+      <c r="G11" t="n">
+        <v>74</v>
+      </c>
+      <c r="H11" t="n">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="12">
+      <c r="A12" s="1" t="n">
+        <v>10</v>
+      </c>
+      <c r="B12" t="inlineStr">
+        <is>
+          <t>Кузнецов Илья Игоревич</t>
+        </is>
+      </c>
+      <c r="C12" t="n">
+        <v>2381</v>
+      </c>
+      <c r="D12" t="inlineStr">
+        <is>
+          <t>kuznecovilya12@gmail.com</t>
+        </is>
+      </c>
+      <c r="E12" t="inlineStr">
+        <is>
+          <t>enshxx</t>
+        </is>
+      </c>
+      <c r="F12" t="inlineStr">
+        <is>
+          <t>enshx</t>
+        </is>
+      </c>
+      <c r="G12" t="n">
+        <v>74</v>
+      </c>
+      <c r="H12" t="n">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="13">
+      <c r="A13" s="1" t="n">
+        <v>11</v>
+      </c>
+      <c r="B13" t="inlineStr">
+        <is>
+          <t>Лисицкий Степан Александрович</t>
+        </is>
+      </c>
+      <c r="C13" t="n">
+        <v>2381</v>
+      </c>
+      <c r="D13" t="inlineStr">
+        <is>
+          <t>stefanlis123@gmail.com</t>
+        </is>
+      </c>
+      <c r="E13" t="inlineStr">
+        <is>
+          <t>stefachik</t>
+        </is>
+      </c>
+      <c r="F13" t="inlineStr">
+        <is>
+          <t>stefanchik</t>
+        </is>
+      </c>
+      <c r="G13" t="n">
+        <v>74</v>
+      </c>
+      <c r="H13" t="n">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="14">
+      <c r="A14" s="1" t="n">
+        <v>12</v>
+      </c>
+      <c r="B14" t="inlineStr">
+        <is>
+          <t>Мавликаев Иван Андреевич</t>
+        </is>
+      </c>
+      <c r="C14" t="n">
+        <v>2381</v>
+      </c>
+      <c r="D14" t="inlineStr">
+        <is>
+          <t>zaufman@mail.ru</t>
+        </is>
+      </c>
+      <c r="E14" t="inlineStr">
+        <is>
+          <t>ivanmavlikaev</t>
+        </is>
+      </c>
+      <c r="F14" t="inlineStr">
+        <is>
+          <t>ivanmavlikaev</t>
+        </is>
+      </c>
+      <c r="G14" t="n">
+        <v>74</v>
+      </c>
+      <c r="H14" t="n">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="15">
+      <c r="A15" s="1" t="n">
+        <v>13</v>
+      </c>
+      <c r="B15" t="inlineStr">
+        <is>
+          <t>Маленковская Екатерина Андреевна</t>
+        </is>
+      </c>
+      <c r="C15" t="n">
+        <v>2381</v>
+      </c>
+      <c r="D15" t="inlineStr">
+        <is>
+          <t>ekaterina.m.04@mail.ru</t>
+        </is>
+      </c>
+      <c r="E15" t="inlineStr">
+        <is>
+          <t>mkathrin</t>
+        </is>
+      </c>
+      <c r="F15" t="inlineStr">
+        <is>
+          <t>mkathrin</t>
+        </is>
+      </c>
+      <c r="G15" t="n">
+        <v>4</v>
+      </c>
+      <c r="H15" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="16">
+      <c r="A16" s="1" t="n">
+        <v>14</v>
+      </c>
+      <c r="B16" t="inlineStr">
+        <is>
+          <t>Малюская Дарья Ивановна</t>
+        </is>
+      </c>
+      <c r="C16" t="n">
+        <v>2381</v>
+      </c>
+      <c r="D16" t="inlineStr">
+        <is>
+          <t>dasha163463@gmail.com</t>
+        </is>
+      </c>
+      <c r="E16" t="inlineStr">
+        <is>
+          <t>daryamalyuskaya</t>
+        </is>
+      </c>
+      <c r="F16" t="inlineStr">
+        <is>
+          <t>moiruki</t>
+        </is>
+      </c>
+      <c r="G16" t="n">
+        <v>67</v>
+      </c>
+      <c r="H16" t="n">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="17">
+      <c r="A17" s="1" t="n">
+        <v>15</v>
+      </c>
+      <c r="B17" t="inlineStr">
+        <is>
+          <t>Полежаев Андрей Александрович</t>
+        </is>
+      </c>
+      <c r="C17" t="n">
+        <v>2381</v>
+      </c>
+      <c r="D17" t="inlineStr">
+        <is>
+          <t>andrejpolezhaev5909@gmail.com</t>
+        </is>
+      </c>
+      <c r="E17" t="inlineStr">
+        <is>
+          <t>andrew2657</t>
+        </is>
+      </c>
+      <c r="F17" t="inlineStr">
+        <is>
+          <t>Полежаев Андрей</t>
+        </is>
+      </c>
+      <c r="G17" t="n">
+        <v>67</v>
+      </c>
+      <c r="H17" t="n">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="18">
+      <c r="A18" s="1" t="n">
+        <v>16</v>
+      </c>
+      <c r="B18" t="inlineStr">
+        <is>
+          <t>Потапова Дарья Максимовна</t>
+        </is>
+      </c>
+      <c r="C18" t="n">
+        <v>2381</v>
+      </c>
+      <c r="D18" t="inlineStr">
+        <is>
+          <t>dm.potapova@gmail.com</t>
+        </is>
+      </c>
+      <c r="E18" t="inlineStr">
+        <is>
+          <t>daryapotapovaa</t>
+        </is>
+      </c>
+      <c r="F18" t="inlineStr">
+        <is>
+          <t>Дарья Потапова</t>
+        </is>
+      </c>
+      <c r="G18" t="n">
+        <v>74</v>
+      </c>
+      <c r="H18" t="n">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="19">
+      <c r="A19" s="1" t="n">
+        <v>17</v>
+      </c>
+      <c r="B19" t="inlineStr">
+        <is>
+          <t>Рыжиков Иван Сергеевич</t>
+        </is>
+      </c>
+      <c r="C19" t="n">
+        <v>2381</v>
+      </c>
+      <c r="D19" t="inlineStr">
+        <is>
+          <t>iwanryzij@yandex.ru</t>
+        </is>
+      </c>
+      <c r="E19" t="inlineStr">
+        <is>
+          <t>teum3048</t>
+        </is>
+      </c>
+      <c r="F19" t="inlineStr">
+        <is>
+          <t>iwanryzij</t>
+        </is>
+      </c>
+      <c r="G19" t="n">
+        <v>74</v>
+      </c>
+      <c r="H19" t="n">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="20">
+      <c r="A20" s="1" t="n">
+        <v>18</v>
+      </c>
+      <c r="B20" t="inlineStr">
+        <is>
+          <t>Слабнова Дарья Андреевна</t>
+        </is>
+      </c>
+      <c r="C20" t="n">
+        <v>2381</v>
+      </c>
+      <c r="D20" t="inlineStr">
+        <is>
+          <t>dashaslabnova@gmail.com</t>
+        </is>
+      </c>
+      <c r="E20" t="inlineStr">
+        <is>
+          <t>dashasl</t>
+        </is>
+      </c>
+      <c r="F20" t="inlineStr">
+        <is>
+          <t>dashasl</t>
+        </is>
+      </c>
+      <c r="G20" t="n">
+        <v>74</v>
+      </c>
+      <c r="H20" t="n">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="21">
+      <c r="A21" s="1" t="n">
+        <v>19</v>
+      </c>
+      <c r="B21" t="inlineStr">
+        <is>
+          <t>Соколов Сергей Александрович</t>
+        </is>
+      </c>
+      <c r="C21" t="n">
+        <v>2381</v>
+      </c>
+      <c r="D21" t="inlineStr">
+        <is>
+          <t>sokolovserej@gmail.com</t>
+        </is>
+      </c>
+      <c r="E21" t="inlineStr">
+        <is>
+          <t>serejs</t>
+        </is>
+      </c>
+      <c r="F21" t="inlineStr">
+        <is>
+          <t>serejs</t>
+        </is>
+      </c>
+      <c r="G21" t="n">
+        <v>74</v>
+      </c>
+      <c r="H21" t="n">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="22">
+      <c r="A22" s="1" t="n">
+        <v>20</v>
+      </c>
+      <c r="B22" t="inlineStr">
+        <is>
+          <t>Тищенко Артем Михайлович</t>
+        </is>
+      </c>
+      <c r="C22" t="n">
+        <v>2381</v>
+      </c>
+      <c r="D22" t="inlineStr">
+        <is>
+          <t>super.art-tish@yandex.ru</t>
+        </is>
+      </c>
+      <c r="E22" t="inlineStr">
+        <is>
+          <t>arttish</t>
+        </is>
+      </c>
+      <c r="F22" t="inlineStr">
+        <is>
+          <t>arttish</t>
+        </is>
+      </c>
+      <c r="G22" t="n">
+        <v>74</v>
+      </c>
+      <c r="H22" t="n">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="23">
+      <c r="A23" s="1" t="n">
+        <v>21</v>
+      </c>
+      <c r="B23" t="inlineStr">
+        <is>
+          <t>Фомина Алина Константиновна</t>
+        </is>
+      </c>
+      <c r="C23" t="n">
+        <v>2381</v>
+      </c>
+      <c r="D23" t="inlineStr">
+        <is>
+          <t>alinaid17@gmail.com</t>
+        </is>
+      </c>
+      <c r="E23" t="inlineStr">
+        <is>
+          <t>wiwiwooii</t>
+        </is>
+      </c>
+      <c r="F23" t="inlineStr">
+        <is>
+          <t>Алина Фомина</t>
+        </is>
+      </c>
+      <c r="G23" t="n">
+        <v>74</v>
+      </c>
+      <c r="H23" t="n">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="24">
+      <c r="A24" s="1" t="n">
+        <v>22</v>
+      </c>
+      <c r="B24" t="inlineStr">
+        <is>
+          <t>Шляхтин Максим Дмитриевич</t>
+        </is>
+      </c>
+      <c r="C24" t="n">
+        <v>2381</v>
+      </c>
+      <c r="D24" t="inlineStr">
+        <is>
+          <t>maxim.shlyahtin@yandex.ru</t>
+        </is>
+      </c>
+      <c r="E24" t="inlineStr">
+        <is>
+          <t>mrekk-hub</t>
+        </is>
+      </c>
+      <c r="F24" t="inlineStr">
+        <is>
+          <t>Максим Шляхтин</t>
+        </is>
+      </c>
+      <c r="G24" t="n">
+        <v>74</v>
+      </c>
+      <c r="H24" t="n">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="25">
+      <c r="A25" s="1" t="n">
+        <v>23</v>
+      </c>
+      <c r="B25" t="inlineStr">
+        <is>
+          <t>Аникина Дарья Руслановна</t>
+        </is>
+      </c>
+      <c r="C25" t="n">
+        <v>2381</v>
+      </c>
+      <c r="D25" t="inlineStr">
+        <is>
+          <t>darya_anikina_03@mail.ru</t>
+        </is>
+      </c>
+      <c r="E25" t="inlineStr">
+        <is>
+          <t>daryanikina</t>
+        </is>
+      </c>
+      <c r="F25" t="inlineStr">
+        <is>
+          <t>Darya_anikina</t>
+        </is>
+      </c>
+      <c r="G25" t="n">
+        <v>25</v>
+      </c>
+      <c r="H25" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="26">
+      <c r="A26" s="1" t="n">
+        <v>24</v>
+      </c>
+      <c r="B26" t="inlineStr">
+        <is>
+          <t>Бат Очир Билгуундалай</t>
+        </is>
+      </c>
+      <c r="C26" t="n">
+        <v>2381</v>
+      </c>
+      <c r="D26" t="inlineStr">
+        <is>
+          <t>bek157390@gmail.com</t>
+        </is>
+      </c>
+      <c r="E26" t="inlineStr">
+        <is>
+          <t>bilguundalai99</t>
+        </is>
+      </c>
+      <c r="F26" t="inlineStr">
+        <is>
+          <t>Bat Ochir Bilguundalai</t>
+        </is>
+      </c>
+      <c r="G26" t="n">
+        <v>2</v>
+      </c>
+      <c r="H26" t="n">
+        <v>0</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <sheetPr>
+    <outlinePr summaryBelow="1" summaryRight="1"/>
+    <pageSetUpPr/>
+  </sheetPr>
+  <dimension ref="A1:H26"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A1" sqref="A1"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
+  <sheetData>
+    <row r="1">
+      <c r="B1" s="1" t="inlineStr">
+        <is>
+          <t>ФИО</t>
+        </is>
+      </c>
+      <c r="C1" s="1" t="inlineStr">
+        <is>
+          <t>Группа</t>
+        </is>
+      </c>
+      <c r="D1" s="1" t="inlineStr">
+        <is>
+          <t>email</t>
+        </is>
+      </c>
+      <c r="E1" s="1" t="inlineStr">
+        <is>
+          <t>github</t>
+        </is>
+      </c>
+      <c r="F1" s="1" t="inlineStr">
+        <is>
+          <t>e.moevm.info</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>Итого</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
+          <t>Оценка</t>
+        </is>
+      </c>
+    </row>
+    <row r="2">
+      <c r="A2" s="1" t="n">
+        <v>0</v>
+      </c>
+      <c r="B2" t="inlineStr">
+        <is>
+          <t>Апарина Тамила Дмитриевна</t>
+        </is>
+      </c>
+      <c r="C2" t="n">
+        <v>2381</v>
+      </c>
+      <c r="D2" t="inlineStr">
+        <is>
+          <t>millergloria18t@gmail.com</t>
+        </is>
+      </c>
+      <c r="E2" t="inlineStr">
+        <is>
+          <t>tamilka17</t>
+        </is>
+      </c>
+      <c r="F2" t="inlineStr">
+        <is>
+          <t>tamilkaa17.</t>
+        </is>
+      </c>
+      <c r="G2" t="n">
+        <v>0</v>
+      </c>
+      <c r="H2" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="3">
+      <c r="A3" s="1" t="n">
+        <v>1</v>
+      </c>
+      <c r="B3" t="inlineStr">
+        <is>
+          <t>Богатов Илья Алексеевич</t>
+        </is>
+      </c>
+      <c r="C3" t="n">
+        <v>2381</v>
+      </c>
+      <c r="D3" t="inlineStr">
+        <is>
+          <t>bogatov2021@mail.ru</t>
+        </is>
+      </c>
+      <c r="E3" t="inlineStr">
+        <is>
+          <t>cuga77</t>
+        </is>
+      </c>
+      <c r="F3" t="inlineStr">
+        <is>
+          <t>cuga</t>
+        </is>
+      </c>
+      <c r="G3" t="n">
+        <v>26</v>
+      </c>
+      <c r="H3" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="4">
+      <c r="A4" s="1" t="n">
+        <v>2</v>
+      </c>
+      <c r="B4" t="inlineStr">
+        <is>
+          <t>Газукина Дарья Денисовна</t>
+        </is>
+      </c>
+      <c r="C4" t="n">
+        <v>2381</v>
+      </c>
+      <c r="D4" t="inlineStr">
+        <is>
+          <t>dariaomnom@gmail.com</t>
+        </is>
+      </c>
+      <c r="E4" t="inlineStr">
+        <is>
+          <t>dariaomnom</t>
+        </is>
+      </c>
+      <c r="F4" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> Дарья Газукина</t>
+        </is>
+      </c>
+      <c r="G4" t="n">
+        <v>74</v>
+      </c>
+      <c r="H4" t="n">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="5">
+      <c r="A5" s="1" t="n">
+        <v>3</v>
+      </c>
+      <c r="B5" t="inlineStr">
+        <is>
+          <t>Двиков Даниил Владиславович</t>
+        </is>
+      </c>
+      <c r="C5" t="n">
+        <v>2381</v>
+      </c>
+      <c r="D5" t="inlineStr">
+        <is>
+          <t>danillafuture@gmail.com</t>
+        </is>
+      </c>
+      <c r="E5" t="inlineStr">
+        <is>
+          <t>daniildvikov</t>
+        </is>
+      </c>
+      <c r="F5" t="inlineStr">
+        <is>
+          <t>Даниил Двиков</t>
+        </is>
+      </c>
+      <c r="G5" t="n">
+        <v>67</v>
+      </c>
+      <c r="H5" t="n">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="6">
+      <c r="A6" s="1" t="n">
+        <v>4</v>
+      </c>
+      <c r="B6" t="inlineStr">
+        <is>
+          <t>Долотов Никита Андреевич</t>
+        </is>
+      </c>
+      <c r="C6" t="n">
+        <v>2381</v>
+      </c>
+      <c r="D6" t="inlineStr">
+        <is>
+          <t>dolotok2@gmail.com</t>
+        </is>
+      </c>
+      <c r="E6" t="inlineStr">
+        <is>
+          <t>do1otov</t>
+        </is>
+      </c>
+      <c r="F6" t="inlineStr">
+        <is>
+          <t>Никита Долотов (do1otov)</t>
+        </is>
+      </c>
+      <c r="G6" t="n">
+        <v>74</v>
+      </c>
+      <c r="H6" t="n">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="7">
+      <c r="A7" s="1" t="n">
+        <v>5</v>
+      </c>
+      <c r="B7" t="inlineStr">
+        <is>
+          <t>Зазуля Илья Анатольевич</t>
+        </is>
+      </c>
+      <c r="C7" t="n">
+        <v>2381</v>
+      </c>
+      <c r="D7" t="inlineStr">
+        <is>
+          <t>zazulya_i@mail.ru</t>
+        </is>
+      </c>
+      <c r="E7" t="inlineStr">
+        <is>
+          <t>ascens1ve</t>
+        </is>
+      </c>
+      <c r="F7" t="inlineStr">
+        <is>
+          <t>ascensive</t>
+        </is>
+      </c>
+      <c r="G7" t="n">
+        <v>74</v>
+      </c>
+      <c r="H7" t="n">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="8">
+      <c r="A8" s="1" t="n">
+        <v>6</v>
+      </c>
+      <c r="B8" t="inlineStr">
+        <is>
+          <t>Заметаев Михаил Алексеевич</t>
+        </is>
+      </c>
+      <c r="C8" t="n">
+        <v>2381</v>
+      </c>
+      <c r="D8" t="inlineStr">
+        <is>
+          <t>mikhailzametaev@gmail.com</t>
+        </is>
+      </c>
+      <c r="E8" t="inlineStr">
+        <is>
+          <t>qwers451</t>
+        </is>
+      </c>
+      <c r="F8" t="inlineStr">
+        <is>
+          <t>1449</t>
+        </is>
+      </c>
+      <c r="G8" t="n">
+        <v>18</v>
+      </c>
+      <c r="H8" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="9">
+      <c r="A9" s="1" t="n">
+        <v>7</v>
+      </c>
+      <c r="B9" t="inlineStr">
+        <is>
+          <t>Ильясов Марк Ренатович</t>
+        </is>
+      </c>
+      <c r="C9" t="n">
+        <v>2381</v>
+      </c>
+      <c r="D9" t="inlineStr">
+        <is>
+          <t>monsier.sadness@gmail.com</t>
+        </is>
+      </c>
+      <c r="E9" t="inlineStr">
+        <is>
+          <t>monsier-chess</t>
+        </is>
+      </c>
+      <c r="F9" t="inlineStr">
+        <is>
+          <t>monsier-sadness</t>
+        </is>
+      </c>
+      <c r="G9" t="n">
+        <v>58</v>
+      </c>
+      <c r="H9" t="n">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="10">
+      <c r="A10" s="1" t="n">
+        <v>8</v>
+      </c>
+      <c r="B10" t="inlineStr">
+        <is>
+          <t>Комосский Егор Артемович</t>
+        </is>
+      </c>
+      <c r="C10" t="n">
+        <v>2381</v>
+      </c>
+      <c r="D10" t="inlineStr">
+        <is>
+          <t>fivehellday@gmail.com</t>
+        </is>
+      </c>
+      <c r="E10" t="inlineStr"/>
+      <c r="F10" t="inlineStr"/>
+      <c r="G10" t="n">
+        <v>74</v>
+      </c>
+      <c r="H10" t="n">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="11">
+      <c r="A11" s="1" t="n">
+        <v>9</v>
+      </c>
+      <c r="B11" t="inlineStr">
+        <is>
+          <t>Кривов Савелий Алексеевич</t>
+        </is>
+      </c>
+      <c r="C11" t="n">
+        <v>2381</v>
+      </c>
+      <c r="D11" t="inlineStr">
+        <is>
+          <t>krivovsaveliy28@gmail.com</t>
+        </is>
+      </c>
+      <c r="E11" t="inlineStr">
+        <is>
+          <t>saveliykrivov</t>
+        </is>
+      </c>
+      <c r="F11" t="inlineStr">
+        <is>
+          <t>Савелий Кривов</t>
+        </is>
+      </c>
+      <c r="G11" t="n">
+        <v>74</v>
+      </c>
+      <c r="H11" t="n">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="12">
+      <c r="A12" s="1" t="n">
+        <v>10</v>
+      </c>
+      <c r="B12" t="inlineStr">
+        <is>
+          <t>Кузнецов Илья Игоревич</t>
+        </is>
+      </c>
+      <c r="C12" t="n">
+        <v>2381</v>
+      </c>
+      <c r="D12" t="inlineStr">
+        <is>
+          <t>kuznecovilya12@gmail.com</t>
+        </is>
+      </c>
+      <c r="E12" t="inlineStr">
+        <is>
+          <t>enshxx</t>
+        </is>
+      </c>
+      <c r="F12" t="inlineStr">
+        <is>
+          <t>enshx</t>
+        </is>
+      </c>
+      <c r="G12" t="n">
+        <v>74</v>
+      </c>
+      <c r="H12" t="n">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="13">
+      <c r="A13" s="1" t="n">
+        <v>11</v>
+      </c>
+      <c r="B13" t="inlineStr">
+        <is>
+          <t>Лисицкий Степан Александрович</t>
+        </is>
+      </c>
+      <c r="C13" t="n">
+        <v>2381</v>
+      </c>
+      <c r="D13" t="inlineStr">
+        <is>
+          <t>stefanlis123@gmail.com</t>
+        </is>
+      </c>
+      <c r="E13" t="inlineStr">
+        <is>
+          <t>stefachik</t>
+        </is>
+      </c>
+      <c r="F13" t="inlineStr">
+        <is>
+          <t>stefanchik</t>
+        </is>
+      </c>
+      <c r="G13" t="n">
+        <v>74</v>
+      </c>
+      <c r="H13" t="n">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="14">
+      <c r="A14" s="1" t="n">
+        <v>12</v>
+      </c>
+      <c r="B14" t="inlineStr">
+        <is>
+          <t>Мавликаев Иван Андреевич</t>
+        </is>
+      </c>
+      <c r="C14" t="n">
+        <v>2381</v>
+      </c>
+      <c r="D14" t="inlineStr">
+        <is>
+          <t>zaufman@mail.ru</t>
+        </is>
+      </c>
+      <c r="E14" t="inlineStr">
+        <is>
+          <t>ivanmavlikaev</t>
+        </is>
+      </c>
+      <c r="F14" t="inlineStr">
+        <is>
+          <t>ivanmavlikaev</t>
+        </is>
+      </c>
+      <c r="G14" t="n">
+        <v>74</v>
+      </c>
+      <c r="H14" t="n">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="15">
+      <c r="A15" s="1" t="n">
+        <v>13</v>
+      </c>
+      <c r="B15" t="inlineStr">
+        <is>
+          <t>Маленковская Екатерина Андреевна</t>
+        </is>
+      </c>
+      <c r="C15" t="n">
+        <v>2381</v>
+      </c>
+      <c r="D15" t="inlineStr">
+        <is>
+          <t>ekaterina.m.04@mail.ru</t>
+        </is>
+      </c>
+      <c r="E15" t="inlineStr">
+        <is>
+          <t>mkathrin</t>
+        </is>
+      </c>
+      <c r="F15" t="inlineStr">
+        <is>
+          <t>mkathrin</t>
+        </is>
+      </c>
+      <c r="G15" t="n">
+        <v>4</v>
+      </c>
+      <c r="H15" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="16">
+      <c r="A16" s="1" t="n">
+        <v>14</v>
+      </c>
+      <c r="B16" t="inlineStr">
+        <is>
+          <t>Малюская Дарья Ивановна</t>
+        </is>
+      </c>
+      <c r="C16" t="n">
+        <v>2381</v>
+      </c>
+      <c r="D16" t="inlineStr">
+        <is>
+          <t>dasha163463@gmail.com</t>
+        </is>
+      </c>
+      <c r="E16" t="inlineStr">
+        <is>
+          <t>daryamalyuskaya</t>
+        </is>
+      </c>
+      <c r="F16" t="inlineStr">
+        <is>
+          <t>moiruki</t>
+        </is>
+      </c>
+      <c r="G16" t="n">
+        <v>67</v>
+      </c>
+      <c r="H16" t="n">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="17">
+      <c r="A17" s="1" t="n">
+        <v>15</v>
+      </c>
+      <c r="B17" t="inlineStr">
+        <is>
+          <t>Полежаев Андрей Александрович</t>
+        </is>
+      </c>
+      <c r="C17" t="n">
+        <v>2381</v>
+      </c>
+      <c r="D17" t="inlineStr">
+        <is>
+          <t>andrejpolezhaev5909@gmail.com</t>
+        </is>
+      </c>
+      <c r="E17" t="inlineStr">
+        <is>
+          <t>andrew2657</t>
+        </is>
+      </c>
+      <c r="F17" t="inlineStr">
+        <is>
+          <t>Полежаев Андрей</t>
+        </is>
+      </c>
+      <c r="G17" t="n">
+        <v>67</v>
+      </c>
+      <c r="H17" t="n">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="18">
+      <c r="A18" s="1" t="n">
+        <v>16</v>
+      </c>
+      <c r="B18" t="inlineStr">
+        <is>
+          <t>Потапова Дарья Максимовна</t>
+        </is>
+      </c>
+      <c r="C18" t="n">
+        <v>2381</v>
+      </c>
+      <c r="D18" t="inlineStr">
+        <is>
+          <t>dm.potapova@gmail.com</t>
+        </is>
+      </c>
+      <c r="E18" t="inlineStr">
+        <is>
+          <t>daryapotapovaa</t>
+        </is>
+      </c>
+      <c r="F18" t="inlineStr">
+        <is>
+          <t>Дарья Потапова</t>
+        </is>
+      </c>
+      <c r="G18" t="n">
+        <v>74</v>
+      </c>
+      <c r="H18" t="n">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="19">
+      <c r="A19" s="1" t="n">
+        <v>17</v>
+      </c>
+      <c r="B19" t="inlineStr">
+        <is>
+          <t>Рыжиков Иван Сергеевич</t>
+        </is>
+      </c>
+      <c r="C19" t="n">
+        <v>2381</v>
+      </c>
+      <c r="D19" t="inlineStr">
+        <is>
+          <t>iwanryzij@yandex.ru</t>
+        </is>
+      </c>
+      <c r="E19" t="inlineStr">
+        <is>
+          <t>teum3048</t>
+        </is>
+      </c>
+      <c r="F19" t="inlineStr">
+        <is>
+          <t>iwanryzij</t>
+        </is>
+      </c>
+      <c r="G19" t="n">
+        <v>74</v>
+      </c>
+      <c r="H19" t="n">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="20">
+      <c r="A20" s="1" t="n">
+        <v>18</v>
+      </c>
+      <c r="B20" t="inlineStr">
+        <is>
+          <t>Слабнова Дарья Андреевна</t>
+        </is>
+      </c>
+      <c r="C20" t="n">
+        <v>2381</v>
+      </c>
+      <c r="D20" t="inlineStr">
+        <is>
+          <t>dashaslabnova@gmail.com</t>
+        </is>
+      </c>
+      <c r="E20" t="inlineStr">
+        <is>
+          <t>dashasl</t>
+        </is>
+      </c>
+      <c r="F20" t="inlineStr">
+        <is>
+          <t>dashasl</t>
+        </is>
+      </c>
+      <c r="G20" t="n">
+        <v>74</v>
+      </c>
+      <c r="H20" t="n">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="21">
+      <c r="A21" s="1" t="n">
+        <v>19</v>
+      </c>
+      <c r="B21" t="inlineStr">
+        <is>
+          <t>Соколов Сергей Александрович</t>
+        </is>
+      </c>
+      <c r="C21" t="n">
+        <v>2381</v>
+      </c>
+      <c r="D21" t="inlineStr">
+        <is>
+          <t>sokolovserej@gmail.com</t>
+        </is>
+      </c>
+      <c r="E21" t="inlineStr">
+        <is>
+          <t>serejs</t>
+        </is>
+      </c>
+      <c r="F21" t="inlineStr">
+        <is>
+          <t>serejs</t>
+        </is>
+      </c>
+      <c r="G21" t="n">
+        <v>74</v>
+      </c>
+      <c r="H21" t="n">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="22">
+      <c r="A22" s="1" t="n">
+        <v>20</v>
+      </c>
+      <c r="B22" t="inlineStr">
+        <is>
+          <t>Тищенко Артем Михайлович</t>
+        </is>
+      </c>
+      <c r="C22" t="n">
+        <v>2381</v>
+      </c>
+      <c r="D22" t="inlineStr">
+        <is>
+          <t>super.art-tish@yandex.ru</t>
+        </is>
+      </c>
+      <c r="E22" t="inlineStr">
+        <is>
+          <t>arttish</t>
+        </is>
+      </c>
+      <c r="F22" t="inlineStr">
+        <is>
+          <t>arttish</t>
+        </is>
+      </c>
+      <c r="G22" t="n">
+        <v>74</v>
+      </c>
+      <c r="H22" t="n">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="23">
+      <c r="A23" s="1" t="n">
+        <v>21</v>
+      </c>
+      <c r="B23" t="inlineStr">
+        <is>
+          <t>Фомина Алина Константиновна</t>
+        </is>
+      </c>
+      <c r="C23" t="n">
+        <v>2381</v>
+      </c>
+      <c r="D23" t="inlineStr">
+        <is>
+          <t>alinaid17@gmail.com</t>
+        </is>
+      </c>
+      <c r="E23" t="inlineStr">
+        <is>
+          <t>wiwiwooii</t>
+        </is>
+      </c>
+      <c r="F23" t="inlineStr">
+        <is>
+          <t>Алина Фомина</t>
+        </is>
+      </c>
+      <c r="G23" t="n">
+        <v>74</v>
+      </c>
+      <c r="H23" t="n">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="24">
+      <c r="A24" s="1" t="n">
+        <v>22</v>
+      </c>
+      <c r="B24" t="inlineStr">
+        <is>
+          <t>Шляхтин Максим Дмитриевич</t>
+        </is>
+      </c>
+      <c r="C24" t="n">
+        <v>2381</v>
+      </c>
+      <c r="D24" t="inlineStr">
+        <is>
+          <t>maxim.shlyahtin@yandex.ru</t>
+        </is>
+      </c>
+      <c r="E24" t="inlineStr">
+        <is>
+          <t>mrekk-hub</t>
+        </is>
+      </c>
+      <c r="F24" t="inlineStr">
+        <is>
+          <t>Максим Шляхтин</t>
+        </is>
+      </c>
+      <c r="G24" t="n">
+        <v>74</v>
+      </c>
+      <c r="H24" t="n">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="25">
+      <c r="A25" s="1" t="n">
+        <v>23</v>
+      </c>
+      <c r="B25" t="inlineStr">
+        <is>
+          <t>Аникина Дарья Руслановна</t>
+        </is>
+      </c>
+      <c r="C25" t="n">
+        <v>2381</v>
+      </c>
+      <c r="D25" t="inlineStr">
+        <is>
+          <t>darya_anikina_03@mail.ru</t>
+        </is>
+      </c>
+      <c r="E25" t="inlineStr">
+        <is>
+          <t>daryanikina</t>
+        </is>
+      </c>
+      <c r="F25" t="inlineStr">
+        <is>
+          <t>Darya_anikina</t>
+        </is>
+      </c>
+      <c r="G25" t="n">
+        <v>25</v>
+      </c>
+      <c r="H25" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="26">
+      <c r="A26" s="1" t="n">
+        <v>24</v>
+      </c>
+      <c r="B26" t="inlineStr">
+        <is>
+          <t>Бат Очир Билгуундалай</t>
+        </is>
+      </c>
+      <c r="C26" t="n">
+        <v>2381</v>
+      </c>
+      <c r="D26" t="inlineStr">
+        <is>
+          <t>bek157390@gmail.com</t>
+        </is>
+      </c>
+      <c r="E26" t="inlineStr">
+        <is>
+          <t>bilguundalai99</t>
+        </is>
+      </c>
+      <c r="F26" t="inlineStr">
+        <is>
+          <t>Bat Ochir Bilguundalai</t>
+        </is>
+      </c>
+      <c r="G26" t="n">
+        <v>2</v>
+      </c>
+      <c r="H26" t="n">
+        <v>0</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet7.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <sheetPr>
+    <outlinePr summaryBelow="1" summaryRight="1"/>
+    <pageSetUpPr/>
+  </sheetPr>
+  <dimension ref="A1:H26"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A1" sqref="A1"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
+  <sheetData>
+    <row r="1">
+      <c r="B1" s="1" t="inlineStr">
+        <is>
+          <t>ФИО</t>
+        </is>
+      </c>
+      <c r="C1" s="1" t="inlineStr">
+        <is>
+          <t>Группа</t>
+        </is>
+      </c>
+      <c r="D1" s="1" t="inlineStr">
+        <is>
+          <t>email</t>
+        </is>
+      </c>
+      <c r="E1" s="1" t="inlineStr">
+        <is>
+          <t>github</t>
+        </is>
+      </c>
+      <c r="F1" s="1" t="inlineStr">
+        <is>
+          <t>e.moevm.info</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>Итого</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
+          <t>Оценка</t>
+        </is>
+      </c>
+    </row>
+    <row r="2">
+      <c r="A2" s="1" t="n">
+        <v>0</v>
+      </c>
+      <c r="B2" t="inlineStr">
+        <is>
+          <t>Апарина Тамила Дмитриевна</t>
+        </is>
+      </c>
+      <c r="C2" t="n">
+        <v>2381</v>
+      </c>
+      <c r="D2" t="inlineStr">
+        <is>
+          <t>millergloria18t@gmail.com</t>
+        </is>
+      </c>
+      <c r="E2" t="inlineStr">
+        <is>
+          <t>tamilka17</t>
+        </is>
+      </c>
+      <c r="F2" t="inlineStr">
+        <is>
+          <t>tamilkaa17.</t>
+        </is>
+      </c>
+      <c r="G2" t="n">
+        <v>0</v>
+      </c>
+      <c r="H2" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="3">
+      <c r="A3" s="1" t="n">
+        <v>1</v>
+      </c>
+      <c r="B3" t="inlineStr">
+        <is>
+          <t>Богатов Илья Алексеевич</t>
+        </is>
+      </c>
+      <c r="C3" t="n">
+        <v>2381</v>
+      </c>
+      <c r="D3" t="inlineStr">
+        <is>
+          <t>bogatov2021@mail.ru</t>
+        </is>
+      </c>
+      <c r="E3" t="inlineStr">
+        <is>
+          <t>cuga77</t>
+        </is>
+      </c>
+      <c r="F3" t="inlineStr">
+        <is>
+          <t>cuga</t>
+        </is>
+      </c>
+      <c r="G3" t="n">
+        <v>26</v>
+      </c>
+      <c r="H3" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="4">
+      <c r="A4" s="1" t="n">
+        <v>2</v>
+      </c>
+      <c r="B4" t="inlineStr">
+        <is>
+          <t>Газукина Дарья Денисовна</t>
+        </is>
+      </c>
+      <c r="C4" t="n">
+        <v>2381</v>
+      </c>
+      <c r="D4" t="inlineStr">
+        <is>
+          <t>dariaomnom@gmail.com</t>
+        </is>
+      </c>
+      <c r="E4" t="inlineStr">
+        <is>
+          <t>dariaomnom</t>
+        </is>
+      </c>
+      <c r="F4" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> Дарья Газукина</t>
+        </is>
+      </c>
+      <c r="G4" t="n">
+        <v>74</v>
+      </c>
+      <c r="H4" t="n">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="5">
+      <c r="A5" s="1" t="n">
+        <v>3</v>
+      </c>
+      <c r="B5" t="inlineStr">
+        <is>
+          <t>Двиков Даниил Владиславович</t>
+        </is>
+      </c>
+      <c r="C5" t="n">
+        <v>2381</v>
+      </c>
+      <c r="D5" t="inlineStr">
+        <is>
+          <t>danillafuture@gmail.com</t>
+        </is>
+      </c>
+      <c r="E5" t="inlineStr">
+        <is>
+          <t>daniildvikov</t>
+        </is>
+      </c>
+      <c r="F5" t="inlineStr">
+        <is>
+          <t>Даниил Двиков</t>
+        </is>
+      </c>
+      <c r="G5" t="n">
+        <v>67</v>
+      </c>
+      <c r="H5" t="n">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="6">
+      <c r="A6" s="1" t="n">
+        <v>4</v>
+      </c>
+      <c r="B6" t="inlineStr">
+        <is>
+          <t>Долотов Никита Андреевич</t>
+        </is>
+      </c>
+      <c r="C6" t="n">
+        <v>2381</v>
+      </c>
+      <c r="D6" t="inlineStr">
+        <is>
+          <t>dolotok2@gmail.com</t>
+        </is>
+      </c>
+      <c r="E6" t="inlineStr">
+        <is>
+          <t>do1otov</t>
+        </is>
+      </c>
+      <c r="F6" t="inlineStr">
+        <is>
+          <t>Никита Долотов (do1otov)</t>
+        </is>
+      </c>
+      <c r="G6" t="n">
+        <v>74</v>
+      </c>
+      <c r="H6" t="n">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="7">
+      <c r="A7" s="1" t="n">
+        <v>5</v>
+      </c>
+      <c r="B7" t="inlineStr">
+        <is>
+          <t>Зазуля Илья Анатольевич</t>
+        </is>
+      </c>
+      <c r="C7" t="n">
+        <v>2381</v>
+      </c>
+      <c r="D7" t="inlineStr">
+        <is>
+          <t>zazulya_i@mail.ru</t>
+        </is>
+      </c>
+      <c r="E7" t="inlineStr">
+        <is>
+          <t>ascens1ve</t>
+        </is>
+      </c>
+      <c r="F7" t="inlineStr">
+        <is>
+          <t>ascensive</t>
+        </is>
+      </c>
+      <c r="G7" t="n">
+        <v>74</v>
+      </c>
+      <c r="H7" t="n">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="8">
+      <c r="A8" s="1" t="n">
+        <v>6</v>
+      </c>
+      <c r="B8" t="inlineStr">
+        <is>
+          <t>Заметаев Михаил Алексеевич</t>
+        </is>
+      </c>
+      <c r="C8" t="n">
+        <v>2381</v>
+      </c>
+      <c r="D8" t="inlineStr">
+        <is>
+          <t>mikhailzametaev@gmail.com</t>
+        </is>
+      </c>
+      <c r="E8" t="inlineStr">
+        <is>
+          <t>qwers451</t>
+        </is>
+      </c>
+      <c r="F8" t="inlineStr">
+        <is>
+          <t>1449</t>
+        </is>
+      </c>
+      <c r="G8" t="n">
+        <v>18</v>
+      </c>
+      <c r="H8" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="9">
+      <c r="A9" s="1" t="n">
+        <v>7</v>
+      </c>
+      <c r="B9" t="inlineStr">
+        <is>
+          <t>Ильясов Марк Ренатович</t>
+        </is>
+      </c>
+      <c r="C9" t="n">
+        <v>2381</v>
+      </c>
+      <c r="D9" t="inlineStr">
+        <is>
+          <t>monsier.sadness@gmail.com</t>
+        </is>
+      </c>
+      <c r="E9" t="inlineStr">
+        <is>
+          <t>monsier-chess</t>
+        </is>
+      </c>
+      <c r="F9" t="inlineStr">
+        <is>
+          <t>monsier-sadness</t>
+        </is>
+      </c>
+      <c r="G9" t="n">
+        <v>58</v>
+      </c>
+      <c r="H9" t="n">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="10">
+      <c r="A10" s="1" t="n">
+        <v>8</v>
+      </c>
+      <c r="B10" t="inlineStr">
+        <is>
+          <t>Комосский Егор Артемович</t>
+        </is>
+      </c>
+      <c r="C10" t="n">
+        <v>2381</v>
+      </c>
+      <c r="D10" t="inlineStr">
+        <is>
+          <t>fivehellday@gmail.com</t>
+        </is>
+      </c>
+      <c r="E10" t="inlineStr"/>
+      <c r="F10" t="inlineStr"/>
+      <c r="G10" t="n">
+        <v>74</v>
+      </c>
+      <c r="H10" t="n">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="11">
+      <c r="A11" s="1" t="n">
+        <v>9</v>
+      </c>
+      <c r="B11" t="inlineStr">
+        <is>
+          <t>Кривов Савелий Алексеевич</t>
+        </is>
+      </c>
+      <c r="C11" t="n">
+        <v>2381</v>
+      </c>
+      <c r="D11" t="inlineStr">
+        <is>
+          <t>krivovsaveliy28@gmail.com</t>
+        </is>
+      </c>
+      <c r="E11" t="inlineStr">
+        <is>
+          <t>saveliykrivov</t>
+        </is>
+      </c>
+      <c r="F11" t="inlineStr">
+        <is>
+          <t>Савелий Кривов</t>
+        </is>
+      </c>
+      <c r="G11" t="n">
+        <v>74</v>
+      </c>
+      <c r="H11" t="n">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="12">
+      <c r="A12" s="1" t="n">
+        <v>10</v>
+      </c>
+      <c r="B12" t="inlineStr">
+        <is>
+          <t>Кузнецов Илья Игоревич</t>
+        </is>
+      </c>
+      <c r="C12" t="n">
+        <v>2381</v>
+      </c>
+      <c r="D12" t="inlineStr">
+        <is>
+          <t>kuznecovilya12@gmail.com</t>
+        </is>
+      </c>
+      <c r="E12" t="inlineStr">
+        <is>
+          <t>enshxx</t>
+        </is>
+      </c>
+      <c r="F12" t="inlineStr">
+        <is>
+          <t>enshx</t>
+        </is>
+      </c>
+      <c r="G12" t="n">
+        <v>74</v>
+      </c>
+      <c r="H12" t="n">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="13">
+      <c r="A13" s="1" t="n">
+        <v>11</v>
+      </c>
+      <c r="B13" t="inlineStr">
+        <is>
+          <t>Лисицкий Степан Александрович</t>
+        </is>
+      </c>
+      <c r="C13" t="n">
+        <v>2381</v>
+      </c>
+      <c r="D13" t="inlineStr">
+        <is>
+          <t>stefanlis123@gmail.com</t>
+        </is>
+      </c>
+      <c r="E13" t="inlineStr">
+        <is>
+          <t>stefachik</t>
+        </is>
+      </c>
+      <c r="F13" t="inlineStr">
+        <is>
+          <t>stefanchik</t>
+        </is>
+      </c>
+      <c r="G13" t="n">
+        <v>74</v>
+      </c>
+      <c r="H13" t="n">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="14">
+      <c r="A14" s="1" t="n">
+        <v>12</v>
+      </c>
+      <c r="B14" t="inlineStr">
+        <is>
+          <t>Мавликаев Иван Андреевич</t>
+        </is>
+      </c>
+      <c r="C14" t="n">
+        <v>2381</v>
+      </c>
+      <c r="D14" t="inlineStr">
+        <is>
+          <t>zaufman@mail.ru</t>
+        </is>
+      </c>
+      <c r="E14" t="inlineStr">
+        <is>
+          <t>ivanmavlikaev</t>
+        </is>
+      </c>
+      <c r="F14" t="inlineStr">
+        <is>
+          <t>ivanmavlikaev</t>
+        </is>
+      </c>
+      <c r="G14" t="n">
+        <v>74</v>
+      </c>
+      <c r="H14" t="n">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="15">
+      <c r="A15" s="1" t="n">
+        <v>13</v>
+      </c>
+      <c r="B15" t="inlineStr">
+        <is>
+          <t>Маленковская Екатерина Андреевна</t>
+        </is>
+      </c>
+      <c r="C15" t="n">
+        <v>2381</v>
+      </c>
+      <c r="D15" t="inlineStr">
+        <is>
+          <t>ekaterina.m.04@mail.ru</t>
+        </is>
+      </c>
+      <c r="E15" t="inlineStr">
+        <is>
+          <t>mkathrin</t>
+        </is>
+      </c>
+      <c r="F15" t="inlineStr">
+        <is>
+          <t>mkathrin</t>
+        </is>
+      </c>
+      <c r="G15" t="n">
+        <v>4</v>
+      </c>
+      <c r="H15" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="16">
+      <c r="A16" s="1" t="n">
+        <v>14</v>
+      </c>
+      <c r="B16" t="inlineStr">
+        <is>
+          <t>Малюская Дарья Ивановна</t>
+        </is>
+      </c>
+      <c r="C16" t="n">
+        <v>2381</v>
+      </c>
+      <c r="D16" t="inlineStr">
+        <is>
+          <t>dasha163463@gmail.com</t>
+        </is>
+      </c>
+      <c r="E16" t="inlineStr">
+        <is>
+          <t>daryamalyuskaya</t>
+        </is>
+      </c>
+      <c r="F16" t="inlineStr">
+        <is>
+          <t>moiruki</t>
+        </is>
+      </c>
+      <c r="G16" t="n">
+        <v>67</v>
+      </c>
+      <c r="H16" t="n">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="17">
+      <c r="A17" s="1" t="n">
+        <v>15</v>
+      </c>
+      <c r="B17" t="inlineStr">
+        <is>
+          <t>Полежаев Андрей Александрович</t>
+        </is>
+      </c>
+      <c r="C17" t="n">
+        <v>2381</v>
+      </c>
+      <c r="D17" t="inlineStr">
+        <is>
+          <t>andrejpolezhaev5909@gmail.com</t>
+        </is>
+      </c>
+      <c r="E17" t="inlineStr">
+        <is>
+          <t>andrew2657</t>
+        </is>
+      </c>
+      <c r="F17" t="inlineStr">
+        <is>
+          <t>Полежаев Андрей</t>
+        </is>
+      </c>
+      <c r="G17" t="n">
+        <v>67</v>
+      </c>
+      <c r="H17" t="n">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="18">
+      <c r="A18" s="1" t="n">
+        <v>16</v>
+      </c>
+      <c r="B18" t="inlineStr">
+        <is>
+          <t>Потапова Дарья Максимовна</t>
+        </is>
+      </c>
+      <c r="C18" t="n">
+        <v>2381</v>
+      </c>
+      <c r="D18" t="inlineStr">
+        <is>
+          <t>dm.potapova@gmail.com</t>
+        </is>
+      </c>
+      <c r="E18" t="inlineStr">
+        <is>
+          <t>daryapotapovaa</t>
+        </is>
+      </c>
+      <c r="F18" t="inlineStr">
+        <is>
+          <t>Дарья Потапова</t>
+        </is>
+      </c>
+      <c r="G18" t="n">
+        <v>74</v>
+      </c>
+      <c r="H18" t="n">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="19">
+      <c r="A19" s="1" t="n">
+        <v>17</v>
+      </c>
+      <c r="B19" t="inlineStr">
+        <is>
+          <t>Рыжиков Иван Сергеевич</t>
+        </is>
+      </c>
+      <c r="C19" t="n">
+        <v>2381</v>
+      </c>
+      <c r="D19" t="inlineStr">
+        <is>
+          <t>iwanryzij@yandex.ru</t>
+        </is>
+      </c>
+      <c r="E19" t="inlineStr">
+        <is>
+          <t>teum3048</t>
+        </is>
+      </c>
+      <c r="F19" t="inlineStr">
+        <is>
+          <t>iwanryzij</t>
+        </is>
+      </c>
+      <c r="G19" t="n">
+        <v>74</v>
+      </c>
+      <c r="H19" t="n">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="20">
+      <c r="A20" s="1" t="n">
+        <v>18</v>
+      </c>
+      <c r="B20" t="inlineStr">
+        <is>
+          <t>Слабнова Дарья Андреевна</t>
+        </is>
+      </c>
+      <c r="C20" t="n">
+        <v>2381</v>
+      </c>
+      <c r="D20" t="inlineStr">
+        <is>
+          <t>dashaslabnova@gmail.com</t>
+        </is>
+      </c>
+      <c r="E20" t="inlineStr">
+        <is>
+          <t>dashasl</t>
+        </is>
+      </c>
+      <c r="F20" t="inlineStr">
+        <is>
+          <t>dashasl</t>
+        </is>
+      </c>
+      <c r="G20" t="n">
+        <v>74</v>
+      </c>
+      <c r="H20" t="n">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="21">
+      <c r="A21" s="1" t="n">
+        <v>19</v>
+      </c>
+      <c r="B21" t="inlineStr">
+        <is>
+          <t>Соколов Сергей Александрович</t>
+        </is>
+      </c>
+      <c r="C21" t="n">
+        <v>2381</v>
+      </c>
+      <c r="D21" t="inlineStr">
+        <is>
+          <t>sokolovserej@gmail.com</t>
+        </is>
+      </c>
+      <c r="E21" t="inlineStr">
+        <is>
+          <t>serejs</t>
+        </is>
+      </c>
+      <c r="F21" t="inlineStr">
+        <is>
+          <t>serejs</t>
+        </is>
+      </c>
+      <c r="G21" t="n">
+        <v>74</v>
+      </c>
+      <c r="H21" t="n">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="22">
+      <c r="A22" s="1" t="n">
+        <v>20</v>
+      </c>
+      <c r="B22" t="inlineStr">
+        <is>
+          <t>Тищенко Артем Михайлович</t>
+        </is>
+      </c>
+      <c r="C22" t="n">
+        <v>2381</v>
+      </c>
+      <c r="D22" t="inlineStr">
+        <is>
+          <t>super.art-tish@yandex.ru</t>
+        </is>
+      </c>
+      <c r="E22" t="inlineStr">
+        <is>
+          <t>arttish</t>
+        </is>
+      </c>
+      <c r="F22" t="inlineStr">
+        <is>
+          <t>arttish</t>
+        </is>
+      </c>
+      <c r="G22" t="n">
+        <v>74</v>
+      </c>
+      <c r="H22" t="n">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="23">
+      <c r="A23" s="1" t="n">
+        <v>21</v>
+      </c>
+      <c r="B23" t="inlineStr">
+        <is>
+          <t>Фомина Алина Константиновна</t>
+        </is>
+      </c>
+      <c r="C23" t="n">
+        <v>2381</v>
+      </c>
+      <c r="D23" t="inlineStr">
+        <is>
+          <t>alinaid17@gmail.com</t>
+        </is>
+      </c>
+      <c r="E23" t="inlineStr">
+        <is>
+          <t>wiwiwooii</t>
+        </is>
+      </c>
+      <c r="F23" t="inlineStr">
+        <is>
+          <t>Алина Фомина</t>
+        </is>
+      </c>
+      <c r="G23" t="n">
+        <v>74</v>
+      </c>
+      <c r="H23" t="n">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="24">
+      <c r="A24" s="1" t="n">
+        <v>22</v>
+      </c>
+      <c r="B24" t="inlineStr">
+        <is>
+          <t>Шляхтин Максим Дмитриевич</t>
+        </is>
+      </c>
+      <c r="C24" t="n">
+        <v>2381</v>
+      </c>
+      <c r="D24" t="inlineStr">
+        <is>
+          <t>maxim.shlyahtin@yandex.ru</t>
+        </is>
+      </c>
+      <c r="E24" t="inlineStr">
+        <is>
+          <t>mrekk-hub</t>
+        </is>
+      </c>
+      <c r="F24" t="inlineStr">
+        <is>
+          <t>Максим Шляхтин</t>
+        </is>
+      </c>
+      <c r="G24" t="n">
+        <v>74</v>
+      </c>
+      <c r="H24" t="n">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="25">
+      <c r="A25" s="1" t="n">
+        <v>23</v>
+      </c>
+      <c r="B25" t="inlineStr">
+        <is>
+          <t>Аникина Дарья Руслановна</t>
+        </is>
+      </c>
+      <c r="C25" t="n">
+        <v>2381</v>
+      </c>
+      <c r="D25" t="inlineStr">
+        <is>
+          <t>darya_anikina_03@mail.ru</t>
+        </is>
+      </c>
+      <c r="E25" t="inlineStr">
+        <is>
+          <t>daryanikina</t>
+        </is>
+      </c>
+      <c r="F25" t="inlineStr">
+        <is>
+          <t>Darya_anikina</t>
+        </is>
+      </c>
+      <c r="G25" t="n">
+        <v>25</v>
+      </c>
+      <c r="H25" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="26">
+      <c r="A26" s="1" t="n">
+        <v>24</v>
+      </c>
+      <c r="B26" t="inlineStr">
+        <is>
+          <t>Бат Очир Билгуундалай</t>
+        </is>
+      </c>
+      <c r="C26" t="n">
+        <v>2381</v>
+      </c>
+      <c r="D26" t="inlineStr">
+        <is>
+          <t>bek157390@gmail.com</t>
+        </is>
+      </c>
+      <c r="E26" t="inlineStr">
+        <is>
+          <t>bilguundalai99</t>
+        </is>
+      </c>
+      <c r="F26" t="inlineStr">
+        <is>
+          <t>Bat Ochir Bilguundalai</t>
+        </is>
+      </c>
+      <c r="G26" t="n">
+        <v>2</v>
+      </c>
+      <c r="H26" t="n">
+        <v>0</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
+</worksheet>
 </file>